--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F87A9-9B34-4996-A0F1-51EB5979569F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367003E0-FF42-4B61-B84A-13F66C60804C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="298">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -925,13 +925,22 @@
   </si>
   <si>
     <t>  1157:     Response response = await ApiHelper.put(/api/Obras/PutDatosObra/', widget.obra.nroObra.toString(), request);</t>
+  </si>
+  <si>
+    <t>Fatan</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Revisadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +978,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1109,10 +1125,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1180,9 +1197,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1519,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1531,10 +1550,13 @@
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="119.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>184</v>
       </c>
@@ -1544,13 +1566,33 @@
       <c r="C1" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <f>SUM(D3:D292)</f>
+        <v>163</v>
+      </c>
+      <c r="E2" s="1">
+        <f>+F2-D2</f>
+        <v>54</v>
+      </c>
+      <c r="F2" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1560,8 +1602,12 @@
       <c r="C3" s="19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="27">
+        <f>+E2/F2</f>
+        <v>0.24884792626728111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1570,7 +1616,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1579,7 +1625,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1588,7 +1634,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1597,7 +1643,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1606,7 +1652,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1615,7 +1661,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1624,12 +1670,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1640,7 +1686,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1649,7 +1695,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1658,7 +1704,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1667,12 +1713,16 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="str">
+        <f t="shared" ref="D4:D67" si="0">IF(C16&lt;&gt;"",1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1682,33 +1732,41 @@
       <c r="C17" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1718,33 +1776,41 @@
       <c r="C22" s="10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
       <c r="C24" s="18" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>19</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -1754,13 +1820,21 @@
       <c r="C27" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1771,7 +1845,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -1780,7 +1854,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -1789,7 +1863,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -1936,7 +2010,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42</v>
       </c>
@@ -1945,7 +2019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -1954,7 +2028,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -1963,14 +2037,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>46</v>
       </c>
@@ -1981,7 +2055,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>47</v>
       </c>
@@ -1990,12 +2064,16 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2005,8 +2083,12 @@
       <c r="C56" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2014,15 +2096,23 @@
       <c r="C57" s="12" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2032,15 +2122,23 @@
       <c r="C59" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2050,8 +2148,12 @@
       <c r="C61" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2059,15 +2161,23 @@
       <c r="C62" s="12" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2077,8 +2187,12 @@
       <c r="C64" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2086,15 +2200,23 @@
       <c r="C65" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2104,8 +2226,12 @@
       <c r="C67" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2113,15 +2239,23 @@
       <c r="C68" s="12" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="1">
+        <f t="shared" ref="D68:D131" si="1">IF(C68&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2131,8 +2265,12 @@
       <c r="C70" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2140,8 +2278,12 @@
       <c r="C71" s="14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2149,15 +2291,23 @@
       <c r="C72" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2167,8 +2317,12 @@
       <c r="C74" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2176,8 +2330,12 @@
       <c r="C75" s="14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2185,8 +2343,12 @@
       <c r="C76" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2194,8 +2356,12 @@
       <c r="C77" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2203,8 +2369,12 @@
       <c r="C78" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2212,8 +2382,12 @@
       <c r="C79" s="14" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2221,15 +2395,23 @@
       <c r="C80" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2239,8 +2421,12 @@
       <c r="C82" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2248,15 +2434,23 @@
       <c r="C83" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2266,8 +2460,12 @@
       <c r="C85" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2275,8 +2473,12 @@
       <c r="C86" s="14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2284,15 +2486,23 @@
       <c r="C87" s="12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2302,8 +2512,12 @@
       <c r="C89" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2311,8 +2525,12 @@
       <c r="C90" s="14" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2320,8 +2538,12 @@
       <c r="C91" s="14" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2329,8 +2551,12 @@
       <c r="C92" s="14" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2338,15 +2564,23 @@
       <c r="C93" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2356,8 +2590,12 @@
       <c r="C95" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2365,8 +2603,12 @@
       <c r="C96" s="14" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2374,8 +2616,12 @@
       <c r="C97" s="14" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2383,15 +2629,23 @@
       <c r="C98" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2401,8 +2655,12 @@
       <c r="C100" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2410,8 +2668,12 @@
       <c r="C101" s="14" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2419,8 +2681,12 @@
       <c r="C102" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2428,8 +2694,12 @@
       <c r="C103" s="14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2437,15 +2707,23 @@
       <c r="C104" s="12" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2455,15 +2733,23 @@
       <c r="C106" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2473,8 +2759,12 @@
       <c r="C108" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2482,8 +2772,12 @@
       <c r="C109" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2491,8 +2785,12 @@
       <c r="C110" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2500,8 +2798,12 @@
       <c r="C111" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2509,8 +2811,12 @@
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2518,8 +2824,12 @@
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2527,15 +2837,23 @@
       <c r="C114" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2545,8 +2863,12 @@
       <c r="C116" s="10" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2554,8 +2876,12 @@
       <c r="C117" s="14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2563,8 +2889,12 @@
       <c r="C118" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2572,8 +2902,12 @@
       <c r="C119" s="14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2581,15 +2915,23 @@
       <c r="C120" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2599,8 +2941,12 @@
       <c r="C122" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2608,8 +2954,12 @@
       <c r="C123" s="14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2617,15 +2967,23 @@
       <c r="C124" s="12" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2635,8 +2993,12 @@
       <c r="C126" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -2644,8 +3006,12 @@
       <c r="C127" s="14" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -2653,15 +3019,23 @@
       <c r="C128" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2671,8 +3045,12 @@
       <c r="C130" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2680,8 +3058,12 @@
       <c r="C131" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2689,8 +3071,12 @@
       <c r="C132" s="14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="1">
+        <f t="shared" ref="D132:D195" si="2">IF(C132&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2698,15 +3084,23 @@
       <c r="C133" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2716,8 +3110,12 @@
       <c r="C135" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2725,8 +3123,12 @@
       <c r="C136" s="14" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2734,15 +3136,23 @@
       <c r="C137" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2752,8 +3162,12 @@
       <c r="C139" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2761,15 +3175,23 @@
       <c r="C140" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2779,8 +3201,12 @@
       <c r="C142" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2788,8 +3214,12 @@
       <c r="C143" s="14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2797,8 +3227,12 @@
       <c r="C144" s="14" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2806,8 +3240,12 @@
       <c r="C145" s="14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2815,15 +3253,23 @@
       <c r="C146" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2833,8 +3279,12 @@
       <c r="C148" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2842,15 +3292,23 @@
       <c r="C149" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="4"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2860,8 +3318,12 @@
       <c r="C151" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2869,8 +3331,12 @@
       <c r="C152" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2878,8 +3344,12 @@
       <c r="C153" s="14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2887,8 +3357,12 @@
       <c r="C154" s="14" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2896,15 +3370,23 @@
       <c r="C155" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="4"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -2914,8 +3396,12 @@
       <c r="C157" s="10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -2923,15 +3409,23 @@
       <c r="C158" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="4"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -2941,15 +3435,23 @@
       <c r="C160" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -2959,15 +3461,23 @@
       <c r="C162" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -2977,15 +3487,23 @@
       <c r="C164" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -2995,8 +3513,12 @@
       <c r="C166" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3004,15 +3526,23 @@
       <c r="C167" s="12" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="4"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3022,15 +3552,23 @@
       <c r="C169" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3040,8 +3578,12 @@
       <c r="C171" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3049,8 +3591,12 @@
       <c r="C172" s="14" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3058,69 +3604,81 @@
       <c r="C173" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="4"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="13"/>
-      <c r="C176" s="14" t="s">
+      <c r="B176" s="25"/>
+      <c r="C176" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="13"/>
-      <c r="C177" s="14" t="s">
+      <c r="B177" s="25"/>
+      <c r="C177" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="14" t="s">
+      <c r="B178" s="25"/>
+      <c r="C178" s="18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="12" t="s">
+      <c r="B179" s="24"/>
+      <c r="C179" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="4"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3130,8 +3688,12 @@
       <c r="C181" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3139,15 +3701,23 @@
       <c r="C182" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="4"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -3157,15 +3727,23 @@
       <c r="C184" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="4"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -3175,8 +3753,12 @@
       <c r="C186" s="10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -3184,15 +3766,23 @@
       <c r="C187" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="4"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -3202,8 +3792,12 @@
       <c r="C189" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -3211,8 +3805,12 @@
       <c r="C190" s="14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -3220,15 +3818,23 @@
       <c r="C191" s="12" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="4"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -3238,8 +3844,12 @@
       <c r="C193" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -3247,15 +3857,23 @@
       <c r="C194" s="12" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="4"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -3265,8 +3883,12 @@
       <c r="C196" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="1">
+        <f t="shared" ref="D196:D259" si="3">IF(C196&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -3274,8 +3896,12 @@
       <c r="C197" s="14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -3283,8 +3909,12 @@
       <c r="C198" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -3292,15 +3922,23 @@
       <c r="C199" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="4"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -3310,8 +3948,12 @@
       <c r="C201" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -3319,8 +3961,12 @@
       <c r="C202" s="14" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -3328,15 +3974,23 @@
       <c r="C203" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="4"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -3346,8 +4000,12 @@
       <c r="C205" s="10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -3355,15 +4013,23 @@
       <c r="C206" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="4"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -3373,8 +4039,12 @@
       <c r="C208" s="10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -3382,8 +4052,12 @@
       <c r="C209" s="14" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -3391,8 +4065,12 @@
       <c r="C210" s="14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -3400,8 +4078,12 @@
       <c r="C211" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -3409,8 +4091,12 @@
       <c r="C212" s="14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -3418,15 +4104,23 @@
       <c r="C213" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="4"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -3436,8 +4130,12 @@
       <c r="C215" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -3445,8 +4143,12 @@
       <c r="C216" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -3454,8 +4156,12 @@
       <c r="C217" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -3463,8 +4169,12 @@
       <c r="C218" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -3472,8 +4182,12 @@
       <c r="C219" s="14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -3481,15 +4195,23 @@
       <c r="C220" s="12" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="4"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -3499,8 +4221,12 @@
       <c r="C222" s="10" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -3508,8 +4234,12 @@
       <c r="C223" s="14" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -3517,8 +4247,12 @@
       <c r="C224" s="14" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -3526,8 +4260,12 @@
       <c r="C225" s="14" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -3535,15 +4273,23 @@
       <c r="C226" s="12" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="4"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -3553,15 +4299,23 @@
       <c r="C228" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="4"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -3571,15 +4325,23 @@
       <c r="C230" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="4"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -3589,8 +4351,12 @@
       <c r="C232" s="10" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -3598,8 +4364,12 @@
       <c r="C233" s="14" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -3607,8 +4377,12 @@
       <c r="C234" s="14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -3616,15 +4390,23 @@
       <c r="C235" s="12" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="4"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -3634,8 +4416,12 @@
       <c r="C237" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -3643,8 +4429,12 @@
       <c r="C238" s="14" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -3652,15 +4442,23 @@
       <c r="C239" s="12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="4"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -3670,8 +4468,12 @@
       <c r="C241" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -3679,15 +4481,23 @@
       <c r="C242" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="4"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -3697,8 +4507,12 @@
       <c r="C244" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -3706,15 +4520,23 @@
       <c r="C245" s="12" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="4"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -3724,15 +4546,23 @@
       <c r="C247" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="4"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -3742,8 +4572,12 @@
       <c r="C249" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -3751,15 +4585,23 @@
       <c r="C250" s="12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="4"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -3769,15 +4611,23 @@
       <c r="C252" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="4"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -3787,15 +4637,23 @@
       <c r="C254" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="4"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -3805,15 +4663,23 @@
       <c r="C256" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="4"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -3823,8 +4689,12 @@
       <c r="C258" s="10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -3832,8 +4702,12 @@
       <c r="C259" s="14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -3841,8 +4715,12 @@
       <c r="C260" s="14" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260" s="1">
+        <f t="shared" ref="D260:D292" si="4">IF(C260&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -3850,8 +4728,12 @@
       <c r="C261" s="14" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -3859,15 +4741,23 @@
       <c r="C262" s="12" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="4"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -3877,8 +4767,12 @@
       <c r="C264" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -3886,15 +4780,23 @@
       <c r="C265" s="12" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="1"/>
       <c r="C266" s="4"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -3905,14 +4807,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -3923,14 +4825,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -3941,7 +4843,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -3950,7 +4852,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -3959,7 +4861,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -3968,7 +4870,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -3977,14 +4879,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -3995,7 +4897,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -4004,14 +4906,18 @@
         <v>246</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="4"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -4021,15 +4927,23 @@
       <c r="C280" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="4"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -4039,8 +4953,12 @@
       <c r="C282" s="10" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -4048,8 +4966,12 @@
       <c r="C283" s="14" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -4057,15 +4979,23 @@
       <c r="C284" s="12" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="4"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -4075,15 +5005,23 @@
       <c r="C286" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="4"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -4093,8 +5031,12 @@
       <c r="C288" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -4102,8 +5044,12 @@
       <c r="C289" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -4111,15 +5057,23 @@
       <c r="C290" s="12" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="4"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -4128,6 +5082,10 @@
       </c>
       <c r="C292" s="8" t="s">
         <v>239</v>
+      </c>
+      <c r="D292" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367003E0-FF42-4B61-B84A-13F66C60804C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5AB027-32C0-4C0B-81D4-B9602F884F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$270</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="302">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -934,13 +934,25 @@
   </si>
   <si>
     <t>Revisadas</t>
+  </si>
+  <si>
+    <t>El registro de transacciones de la base de datos 'ObrasOT' está lleno debido a 'ACTIVE_TRANSACTION'.</t>
+  </si>
+  <si>
+    <t>15min 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  431:     var url = Uri.parse('${Constants.apiUrl}/Api/Causantes/GetCausanteByGrupoAndByCodigo');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  752:      var url = Uri.parse('${Constants.apiUrl}/Api/Causantes/GetCausanteByGrupoAndByCodigo2');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,8 +998,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,6 +1027,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1198,6 +1222,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1538,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1581,15 +1618,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D292)</f>
-        <v>163</v>
+        <f>SUM(D3:D294)</f>
+        <v>154</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1604,7 +1641,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.24884792626728111</v>
+        <v>0.29680365296803651</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1718,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D4:D67" si="0">IF(C16&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D16:D67" si="0">IF(C16&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -1738,18 +1775,27 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="18" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
         <v>292</v>
@@ -1757,7 +1803,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
@@ -1768,7 +1814,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>271</v>
@@ -1782,18 +1828,27 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="18" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="18" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
         <v>287</v>
@@ -1801,7 +1856,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4"/>
@@ -1812,7 +1867,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>280</v>
@@ -1827,7 +1882,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1836,7 +1891,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>42</v>
@@ -1847,7 +1902,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="18" t="s">
@@ -1856,7 +1911,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="18" t="s">
@@ -1865,7 +1920,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="18" t="s">
@@ -1874,7 +1929,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="17" t="s">
@@ -1883,12 +1938,12 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>41</v>
@@ -1899,12 +1954,12 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>40</v>
@@ -1915,7 +1970,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="18" t="s">
@@ -1924,7 +1979,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="18" t="s">
@@ -1933,7 +1988,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="18" t="s">
@@ -1942,7 +1997,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="18" t="s">
@@ -1951,7 +2006,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="18" t="s">
@@ -1960,7 +2015,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="18" t="s">
@@ -1969,7 +2024,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="18" t="s">
@@ -1978,7 +2033,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="18" t="s">
@@ -1987,7 +2042,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="17" t="s">
@@ -1996,12 +2051,12 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>38</v>
@@ -2010,43 +2065,43 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>39</v>
@@ -2055,25 +2110,25 @@
         <v>293</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2088,12 +2143,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="16"/>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="17" t="s">
         <v>266</v>
       </c>
       <c r="D57" s="1">
@@ -2101,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2112,22 +2167,25 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2137,36 +2195,31 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="12" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D62" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2177,171 +2230,135 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B65" s="32"/>
+      <c r="C65" s="18" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="17" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="1"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" ref="D68:D131" si="1">IF(C68&lt;&gt;"",1,"")</f>
-        <v>1</v>
+      <c r="B68" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="17" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="1" t="str">
+        <f t="shared" ref="D70:D133" si="1">IF(C70&lt;&gt;"",1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B71" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B72" s="25"/>
+      <c r="C72" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B74" s="24"/>
+      <c r="C74" s="17" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B75" s="1"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14" t="s">
-        <v>79</v>
+      <c r="B76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
@@ -2354,7 +2371,7 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
@@ -2367,7 +2384,7 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
@@ -2380,7 +2397,7 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
@@ -2391,9 +2408,9 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12" t="s">
-        <v>82</v>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
@@ -2404,22 +2421,22 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>83</v>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
@@ -2430,35 +2447,35 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B83" s="1"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>84</v>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
@@ -2469,22 +2486,22 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B86" s="1"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12" t="s">
-        <v>193</v>
+      <c r="B87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="1"/>
@@ -2495,22 +2512,22 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>85</v>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="1"/>
@@ -2521,22 +2538,22 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B90" s="1"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="14" t="s">
-        <v>195</v>
+      <c r="B91" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="1"/>
@@ -2549,7 +2566,7 @@
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="1"/>
@@ -2560,9 +2577,9 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
-        <v>197</v>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="1"/>
@@ -2573,22 +2590,22 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>86</v>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="1"/>
@@ -2599,22 +2616,22 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B96" s="1"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="14" t="s">
-        <v>199</v>
+      <c r="B97" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="1"/>
@@ -2625,9 +2642,9 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12" t="s">
-        <v>87</v>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="1"/>
@@ -2638,22 +2655,22 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>88</v>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="1"/>
@@ -2664,22 +2681,22 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D101" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B101" s="1"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="14" t="s">
-        <v>201</v>
+      <c r="B102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="1"/>
@@ -2692,7 +2709,7 @@
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="1"/>
@@ -2703,9 +2720,9 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12" t="s">
-        <v>256</v>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="1"/>
@@ -2716,22 +2733,22 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>89</v>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="1"/>
@@ -2742,7 +2759,7 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="1"/>
       <c r="C107" s="4"/>
       <c r="D107" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2753,11 +2770,11 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>90</v>
+      <c r="B108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="1"/>
@@ -2768,22 +2785,22 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D109" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="14" t="s">
-        <v>91</v>
+      <c r="B110" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="1"/>
@@ -2796,7 +2813,7 @@
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="14" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="1"/>
@@ -2809,7 +2826,7 @@
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="1"/>
@@ -2822,7 +2839,7 @@
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="1"/>
@@ -2833,9 +2850,9 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12" t="s">
-        <v>95</v>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="1"/>
@@ -2846,22 +2863,22 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>204</v>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="1"/>
@@ -2872,22 +2889,22 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D117" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B117" s="1"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="14" t="s">
-        <v>96</v>
+      <c r="B118" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="1"/>
@@ -2900,7 +2917,7 @@
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="14" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="1"/>
@@ -2911,9 +2928,9 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12" t="s">
-        <v>98</v>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="1"/>
@@ -2924,22 +2941,22 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>205</v>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="1"/>
@@ -2950,22 +2967,22 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D123" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B123" s="1"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12" t="s">
-        <v>258</v>
+      <c r="B124" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="1"/>
@@ -2976,22 +2993,22 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>259</v>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="1"/>
@@ -3002,22 +3019,22 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D127" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B127" s="1"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12" t="s">
-        <v>206</v>
+      <c r="B128" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="1"/>
@@ -3028,22 +3045,22 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>99</v>
+      <c r="B130" s="11"/>
+      <c r="C130" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="1"/>
@@ -3054,25 +3071,25 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D131" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B131" s="1"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="14" t="s">
-        <v>101</v>
+      <c r="B132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" ref="D132:D195" si="2">IF(C132&lt;&gt;"",1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3080,12 +3097,12 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12" t="s">
-        <v>102</v>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3093,22 +3110,22 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" ref="D134:D197" si="2">IF(C134&lt;&gt;"",1,"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>207</v>
+      <c r="B135" s="11"/>
+      <c r="C135" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="2"/>
@@ -3119,22 +3136,22 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D136" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B136" s="1"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12" t="s">
-        <v>209</v>
+      <c r="B137" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="2"/>
@@ -3145,22 +3162,22 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>210</v>
+      <c r="B139" s="11"/>
+      <c r="C139" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="2"/>
@@ -3171,35 +3188,35 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D140" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B140" s="1"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B141" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>106</v>
+      <c r="B142" s="11"/>
+      <c r="C142" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="2"/>
@@ -3210,22 +3227,22 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D143" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B143" s="1"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="14" t="s">
-        <v>241</v>
+      <c r="B144" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="2"/>
@@ -3238,7 +3255,7 @@
       </c>
       <c r="B145" s="13"/>
       <c r="C145" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="2"/>
@@ -3249,9 +3266,9 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12" t="s">
-        <v>109</v>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="2"/>
@@ -3262,22 +3279,22 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>243</v>
+      <c r="B148" s="11"/>
+      <c r="C148" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="2"/>
@@ -3288,35 +3305,35 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D149" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B149" s="1"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B150" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>111</v>
+      <c r="B151" s="11"/>
+      <c r="C151" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="2"/>
@@ -3327,22 +3344,22 @@
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="13"/>
-      <c r="C152" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B152" s="1"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="14" t="s">
-        <v>113</v>
+      <c r="B153" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="2"/>
@@ -3355,7 +3372,7 @@
       </c>
       <c r="B154" s="13"/>
       <c r="C154" s="14" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="2"/>
@@ -3366,9 +3383,9 @@
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12" t="s">
-        <v>114</v>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="2"/>
@@ -3379,22 +3396,22 @@
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>211</v>
+      <c r="B157" s="11"/>
+      <c r="C157" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="2"/>
@@ -3405,35 +3422,35 @@
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D158" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B158" s="1"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B159" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>116</v>
+      <c r="B160" s="11"/>
+      <c r="C160" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="2"/>
@@ -3444,7 +3461,7 @@
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="3"/>
+      <c r="B161" s="1"/>
       <c r="C161" s="4"/>
       <c r="D161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3456,10 +3473,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="2"/>
@@ -3482,10 +3499,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="2"/>
@@ -3507,11 +3524,11 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>119</v>
+      <c r="B166" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="2"/>
@@ -3522,35 +3539,35 @@
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="11"/>
-      <c r="C167" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D167" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B168" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>120</v>
+      <c r="B169" s="11"/>
+      <c r="C169" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="2"/>
@@ -3561,7 +3578,7 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="3"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="4"/>
       <c r="D170" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3572,11 +3589,11 @@
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>121</v>
+      <c r="B171" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="2"/>
@@ -3587,22 +3604,22 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D172" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B172" s="3"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12" t="s">
-        <v>122</v>
+      <c r="B173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="2"/>
@@ -3613,40 +3630,48 @@
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>214</v>
+      <c r="B175" s="11"/>
+      <c r="C175" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="25"/>
-      <c r="C176" s="18" t="s">
-        <v>261</v>
+      <c r="B176" s="1"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="25"/>
-      <c r="C177" s="18" t="s">
-        <v>123</v>
+      <c r="B177" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3655,77 +3680,69 @@
       </c>
       <c r="B178" s="25"/>
       <c r="C178" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="24"/>
-      <c r="C179" s="17" t="s">
-        <v>215</v>
+      <c r="B179" s="25"/>
+      <c r="C179" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="1"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D181" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B181" s="24"/>
+      <c r="C181" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="11"/>
-      <c r="C182" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D182" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B182" s="1"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="1"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B183" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>126</v>
+      <c r="B184" s="11"/>
+      <c r="C184" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="2"/>
@@ -3736,7 +3753,7 @@
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="3"/>
+      <c r="B185" s="1"/>
       <c r="C185" s="4"/>
       <c r="D185" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3747,11 +3764,11 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>216</v>
+      <c r="B186" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="2"/>
@@ -3762,35 +3779,35 @@
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="11"/>
-      <c r="C187" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D187" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B187" s="3"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="1"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B188" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>128</v>
+      <c r="B189" s="11"/>
+      <c r="C189" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="2"/>
@@ -3801,22 +3818,22 @@
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D190" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B190" s="1"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="11"/>
-      <c r="C191" s="12" t="s">
-        <v>217</v>
+      <c r="B191" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="2"/>
@@ -3827,22 +3844,22 @@
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D192" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>130</v>
+      <c r="B193" s="11"/>
+      <c r="C193" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="2"/>
@@ -3853,38 +3870,38 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="11"/>
-      <c r="C194" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D194" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B194" s="1"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B195" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D195" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>142</v>
+      <c r="B196" s="11"/>
+      <c r="C196" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D196" s="1">
-        <f t="shared" ref="D196:D259" si="3">IF(C196&lt;&gt;"",1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3892,25 +3909,25 @@
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="13"/>
-      <c r="C197" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D197" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B197" s="1"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="14" t="s">
-        <v>144</v>
+      <c r="B198" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D198" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D198:D261" si="3">IF(C198&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -3918,9 +3935,9 @@
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="11"/>
-      <c r="C199" s="12" t="s">
-        <v>145</v>
+      <c r="B199" s="13"/>
+      <c r="C199" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" si="3"/>
@@ -3931,22 +3948,22 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="1"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D200" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>146</v>
+      <c r="B201" s="11"/>
+      <c r="C201" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="3"/>
@@ -3957,22 +3974,22 @@
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="13"/>
-      <c r="C202" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D202" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B202" s="1"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="11"/>
-      <c r="C203" s="12" t="s">
-        <v>147</v>
+      <c r="B203" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="3"/>
@@ -3983,22 +4000,22 @@
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="1"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D204" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>225</v>
+      <c r="B205" s="11"/>
+      <c r="C205" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="D205" s="1">
         <f t="shared" si="3"/>
@@ -4009,35 +4026,35 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="11"/>
-      <c r="C206" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D206" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B206" s="1"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B207" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D207" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>149</v>
+      <c r="B208" s="11"/>
+      <c r="C208" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D208" s="1">
         <f t="shared" si="3"/>
@@ -4048,22 +4065,22 @@
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="13"/>
-      <c r="C209" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D209" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B209" s="1"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="13"/>
-      <c r="C210" s="14" t="s">
-        <v>151</v>
+      <c r="B210" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D210" s="1">
         <f t="shared" si="3"/>
@@ -4076,7 +4093,7 @@
       </c>
       <c r="B211" s="13"/>
       <c r="C211" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D211" s="1">
         <f t="shared" si="3"/>
@@ -4089,7 +4106,7 @@
       </c>
       <c r="B212" s="13"/>
       <c r="C212" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D212" s="1">
         <f t="shared" si="3"/>
@@ -4100,9 +4117,9 @@
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12" t="s">
-        <v>154</v>
+      <c r="B213" s="13"/>
+      <c r="C213" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="D213" s="1">
         <f t="shared" si="3"/>
@@ -4113,22 +4130,22 @@
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D214" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>155</v>
+      <c r="B215" s="11"/>
+      <c r="C215" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D215" s="1">
         <f t="shared" si="3"/>
@@ -4139,22 +4156,22 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D216" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B216" s="1"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="13"/>
-      <c r="C217" s="14" t="s">
-        <v>157</v>
+      <c r="B217" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="3"/>
@@ -4167,7 +4184,7 @@
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="3"/>
@@ -4180,7 +4197,7 @@
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D219" s="1">
         <f t="shared" si="3"/>
@@ -4191,9 +4208,9 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="11"/>
-      <c r="C220" s="12" t="s">
-        <v>248</v>
+      <c r="B220" s="13"/>
+      <c r="C220" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="D220" s="1">
         <f t="shared" si="3"/>
@@ -4204,22 +4221,22 @@
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="1"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B221" s="13"/>
+      <c r="C221" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D221" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>249</v>
+      <c r="B222" s="11"/>
+      <c r="C222" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="D222" s="1">
         <f t="shared" si="3"/>
@@ -4230,22 +4247,22 @@
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="13"/>
-      <c r="C223" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D223" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B223" s="1"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="13"/>
-      <c r="C224" s="14" t="s">
-        <v>161</v>
+      <c r="B224" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="3"/>
@@ -4258,7 +4275,7 @@
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="3"/>
@@ -4269,9 +4286,9 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="11"/>
-      <c r="C226" s="12" t="s">
-        <v>226</v>
+      <c r="B226" s="13"/>
+      <c r="C226" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="3"/>
@@ -4282,22 +4299,22 @@
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="1"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D227" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>250</v>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D228" s="1">
         <f t="shared" si="3"/>
@@ -4308,7 +4325,7 @@
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="3"/>
+      <c r="B229" s="1"/>
       <c r="C229" s="4"/>
       <c r="D229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4320,10 +4337,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="3"/>
@@ -4345,11 +4362,11 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>251</v>
+      <c r="B232" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="3"/>
@@ -4360,22 +4377,22 @@
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="13"/>
-      <c r="C233" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D233" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B233" s="3"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="13"/>
-      <c r="C234" s="14" t="s">
-        <v>252</v>
+      <c r="B234" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="D234" s="1">
         <f t="shared" si="3"/>
@@ -4386,9 +4403,9 @@
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="11"/>
-      <c r="C235" s="12" t="s">
-        <v>228</v>
+      <c r="B235" s="13"/>
+      <c r="C235" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="D235" s="1">
         <f t="shared" si="3"/>
@@ -4399,22 +4416,22 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="1"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D236" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>164</v>
+      <c r="B237" s="11"/>
+      <c r="C237" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D237" s="1">
         <f t="shared" si="3"/>
@@ -4425,22 +4442,22 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="13"/>
-      <c r="C238" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D238" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B238" s="1"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="11"/>
-      <c r="C239" s="12" t="s">
-        <v>229</v>
+      <c r="B239" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D239" s="1">
         <f t="shared" si="3"/>
@@ -4451,22 +4468,22 @@
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="1"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D240" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>166</v>
+      <c r="B241" s="11"/>
+      <c r="C241" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="3"/>
@@ -4477,35 +4494,35 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D242" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B242" s="1"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="1"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B243" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D243" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>168</v>
+      <c r="B244" s="11"/>
+      <c r="C244" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D244" s="1">
         <f t="shared" si="3"/>
@@ -4516,35 +4533,35 @@
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="11"/>
-      <c r="C245" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D245" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B245" s="1"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="1"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B246" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D246" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>169</v>
+      <c r="B247" s="11"/>
+      <c r="C247" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D247" s="1">
         <f t="shared" si="3"/>
@@ -4555,7 +4572,7 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="3"/>
+      <c r="B248" s="1"/>
       <c r="C248" s="4"/>
       <c r="D248" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4566,11 +4583,11 @@
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>170</v>
+      <c r="B249" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D249" s="1">
         <f t="shared" si="3"/>
@@ -4581,35 +4598,35 @@
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="11"/>
-      <c r="C250" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D250" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B250" s="3"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="1"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B251" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D251" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>230</v>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="D252" s="1">
         <f t="shared" si="3"/>
@@ -4620,7 +4637,7 @@
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="3"/>
+      <c r="B253" s="1"/>
       <c r="C253" s="4"/>
       <c r="D253" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4632,10 +4649,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D254" s="1">
         <f t="shared" si="3"/>
@@ -4658,10 +4675,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="D256" s="1">
         <f t="shared" si="3"/>
@@ -4683,11 +4700,11 @@
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>173</v>
+      <c r="B258" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D258" s="1">
         <f t="shared" si="3"/>
@@ -4698,25 +4715,25 @@
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="13"/>
-      <c r="C259" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D259" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B259" s="3"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="13"/>
-      <c r="C260" s="14" t="s">
-        <v>175</v>
+      <c r="B260" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D260" s="1">
-        <f t="shared" ref="D260:D292" si="4">IF(C260&lt;&gt;"",1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4726,10 +4743,10 @@
       </c>
       <c r="B261" s="13"/>
       <c r="C261" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D261" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4737,12 +4754,12 @@
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12" t="s">
-        <v>177</v>
+      <c r="B262" s="13"/>
+      <c r="C262" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="D262" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D262:D294" si="4">IF(C262&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -4750,22 +4767,22 @@
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="1"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="1" t="str">
+      <c r="B263" s="13"/>
+      <c r="C263" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D263" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>178</v>
+      <c r="B264" s="11"/>
+      <c r="C264" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="D264" s="1">
         <f t="shared" si="4"/>
@@ -4776,53 +4793,61 @@
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="11"/>
-      <c r="C265" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D265" s="1">
+      <c r="B265" s="1"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="1"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="1" t="str">
+      <c r="B266" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D266" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C267" s="22" t="s">
-        <v>233</v>
+      <c r="B267" s="11"/>
+      <c r="C267" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D267" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="3"/>
+      <c r="B268" s="1"/>
       <c r="C268" s="4"/>
+      <c r="D268" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -4836,29 +4861,29 @@
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C271" s="19" t="s">
-        <v>234</v>
+      <c r="B271" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="25"/>
-      <c r="C272" s="18" t="s">
-        <v>235</v>
-      </c>
+      <c r="B272" s="3"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="25"/>
-      <c r="C273" s="18" t="s">
-        <v>255</v>
+      <c r="B273" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -4867,76 +4892,68 @@
       </c>
       <c r="B274" s="25"/>
       <c r="C274" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="17" t="s">
-        <v>247</v>
+      <c r="B275" s="25"/>
+      <c r="C275" s="18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="1"/>
-      <c r="C276" s="4"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="18" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C277" s="19" t="s">
-        <v>179</v>
+      <c r="B277" s="24"/>
+      <c r="C277" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="24"/>
-      <c r="C278" s="17" t="s">
-        <v>246</v>
-      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="1"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B279" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D280" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="B280" s="24"/>
+      <c r="C280" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="3"/>
+      <c r="B281" s="1"/>
       <c r="C281" s="4"/>
       <c r="D281" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4947,11 +4964,11 @@
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>237</v>
+      <c r="B282" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D282" s="1">
         <f t="shared" si="4"/>
@@ -4962,22 +4979,22 @@
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="13"/>
-      <c r="C283" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D283" s="1">
+      <c r="B283" s="3"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="11"/>
-      <c r="C284" s="12" t="s">
-        <v>281</v>
+      <c r="B284" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="D284" s="1">
         <f t="shared" si="4"/>
@@ -4988,22 +5005,22 @@
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="1"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="1" t="str">
+      <c r="B285" s="13"/>
+      <c r="C285" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D285" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>245</v>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="D286" s="1">
         <f t="shared" si="4"/>
@@ -5014,7 +5031,7 @@
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="3"/>
+      <c r="B287" s="1"/>
       <c r="C287" s="4"/>
       <c r="D287" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5025,11 +5042,11 @@
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>181</v>
+      <c r="B288" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D288" s="1">
         <f t="shared" si="4"/>
@@ -5040,22 +5057,22 @@
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="13"/>
-      <c r="C289" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D289" s="1">
+      <c r="B289" s="3"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12" t="s">
-        <v>183</v>
+      <c r="B290" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D290" s="1">
         <f t="shared" si="4"/>
@@ -5066,31 +5083,58 @@
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="1"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="1" t="str">
+      <c r="B291" s="13"/>
+      <c r="C291" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D291" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>239</v>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="D292" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D294" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H268" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
+  <autoFilter ref="A1:H270" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5AB027-32C0-4C0B-81D4-B9602F884F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23A6A9-2B02-4648-9552-F343B0A5C052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -1578,8 +1578,8 @@
   <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D3:D294)</f>
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1">
         <v>219</v>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.29680365296803651</v>
+        <v>0.31963470319634701</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3790,28 +3790,20 @@
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="D188" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="11"/>
-      <c r="C189" s="12" t="s">
+      <c r="B189" s="24"/>
+      <c r="C189" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D189" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3829,41 +3821,29 @@
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="D191" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="13"/>
-      <c r="C192" s="14" t="s">
+      <c r="B192" s="25"/>
+      <c r="C192" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="D192" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="11"/>
-      <c r="C193" s="12" t="s">
+      <c r="B193" s="24"/>
+      <c r="C193" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="D193" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23A6A9-2B02-4648-9552-F343B0A5C052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35A3E0-B6A4-4FB7-A822-02EB82DD8CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$274</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="307">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -946,6 +946,21 @@
   </si>
   <si>
     <t xml:space="preserve">  752:      var url = Uri.parse('${Constants.apiUrl}/Api/Causantes/GetCausanteByGrupoAndByCodigo2');</t>
+  </si>
+  <si>
+    <t>  609:     Response response =await ApiHelper.postNoToken('/api/VehiculosKilometraje/', request);</t>
+  </si>
+  <si>
+    <t>  651:     await ApiHelper.put('/api/VehiculosProgramasPrev/',element.nroInterno.toString(), request3);</t>
+  </si>
+  <si>
+    <t>lib\screens\flotas\turnos_screen.dart:</t>
+  </si>
+  <si>
+    <t>  673:     await ApiHelper.postNoToken('/api/Vehiculos/PostTurno', request);</t>
+  </si>
+  <si>
+    <t>Grupo TAL tiene VisualizaSPR en null y VisualizaAPP en 0 por lo que no salen Talleres en VistasCausantesApp</t>
   </si>
 </sst>
 </file>
@@ -1575,11 +1590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D193" sqref="D193"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1618,15 +1633,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D294)</f>
-        <v>149</v>
+        <f>SUM(D3:D298)</f>
+        <v>126</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1641,7 +1656,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.31963470319634701</v>
+        <v>0.43243243243243246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2151,10 +2166,6 @@
       <c r="C57" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D57" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -2297,7 +2308,7 @@
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="1" t="str">
-        <f t="shared" ref="D70:D133" si="1">IF(C70&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D70:D137" si="1">IF(C70&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -2796,466 +2807,365 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="D110" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D111" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B111" s="32"/>
+      <c r="C111" s="18" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B112" s="25"/>
+      <c r="C112" s="18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D113" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B113" s="25"/>
+      <c r="C113" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B114" s="25"/>
+      <c r="C114" s="18" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B115" s="25"/>
+      <c r="C115" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B116" s="25"/>
+      <c r="C116" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D118" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B118" s="24"/>
+      <c r="C118" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D119" s="1">
+      <c r="B119" s="1"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B120" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D121" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B121" s="25"/>
+      <c r="C121" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D122" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B122" s="25"/>
+      <c r="C122" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D124" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B124" s="24"/>
+      <c r="C124" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D125" s="1">
+      <c r="B125" s="1"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D126" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B126" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D128" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="24"/>
+      <c r="C128" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D129" s="1">
+      <c r="B129" s="1"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D130" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="25"/>
+      <c r="C131" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D132" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="24"/>
+      <c r="C132" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D133" s="1">
+      <c r="B133" s="1"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="14" t="s">
+      <c r="B134" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C134" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D134" s="1">
-        <f t="shared" ref="D134:D197" si="2">IF(C134&lt;&gt;"",1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12" t="s">
+      <c r="B135" s="24"/>
+      <c r="C135" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D135" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D137" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D138" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="32"/>
+      <c r="C138" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D139" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="24"/>
+      <c r="C139" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="4"/>
       <c r="D140" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D139:D201" si="2">IF(C140&lt;&gt;"",1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12" t="s">
-        <v>105</v>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="1" t="str">
+      <c r="B143" s="11"/>
+      <c r="C143" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" s="1">
+      <c r="B144" s="1"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="14" t="s">
-        <v>107</v>
+      <c r="B145" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="2"/>
@@ -3266,9 +3176,9 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="14" t="s">
-        <v>241</v>
+      <c r="B146" s="11"/>
+      <c r="C146" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="2"/>
@@ -3279,22 +3189,22 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D147" s="1">
+      <c r="B147" s="1"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12" t="s">
-        <v>109</v>
+      <c r="B148" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="2"/>
@@ -3305,22 +3215,22 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="1" t="str">
+      <c r="B149" s="13"/>
+      <c r="C149" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D149" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>243</v>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="2"/>
@@ -3331,9 +3241,9 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12" t="s">
-        <v>110</v>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="2"/>
@@ -3344,35 +3254,35 @@
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="1" t="str">
+      <c r="B152" s="11"/>
+      <c r="C152" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D152" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D153" s="1">
+      <c r="B153" s="1"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="14" t="s">
-        <v>112</v>
+      <c r="B154" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="2"/>
@@ -3383,9 +3293,9 @@
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="14" t="s">
-        <v>113</v>
+      <c r="B155" s="11"/>
+      <c r="C155" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="2"/>
@@ -3396,22 +3306,22 @@
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D156" s="1">
+      <c r="B156" s="1"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="12" t="s">
-        <v>114</v>
+      <c r="B157" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="2"/>
@@ -3422,22 +3332,22 @@
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="1" t="str">
+      <c r="B158" s="13"/>
+      <c r="C158" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>211</v>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="2"/>
@@ -3448,9 +3358,9 @@
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="12" t="s">
-        <v>115</v>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="2"/>
@@ -3461,48 +3371,48 @@
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="1" t="str">
+      <c r="B161" s="11"/>
+      <c r="C161" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D161" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D162" s="1">
+      <c r="B162" s="1"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="1" t="str">
+      <c r="B163" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>117</v>
+      <c r="B164" s="11"/>
+      <c r="C164" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="2"/>
@@ -3513,7 +3423,7 @@
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="1"/>
       <c r="C165" s="4"/>
       <c r="D165" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3525,10 +3435,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="2"/>
@@ -3550,11 +3460,11 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>119</v>
+      <c r="B168" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="2"/>
@@ -3565,61 +3475,61 @@
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D169" s="1">
+      <c r="B169" s="3"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="1" t="str">
+      <c r="B170" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D170" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D171" s="1">
+      <c r="B171" s="3"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="1" t="str">
+      <c r="B172" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D172" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>121</v>
+      <c r="B173" s="11"/>
+      <c r="C173" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="2"/>
@@ -3630,22 +3540,22 @@
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="13"/>
-      <c r="C174" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D174" s="1">
+      <c r="B174" s="1"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="11"/>
-      <c r="C175" s="12" t="s">
-        <v>122</v>
+      <c r="B175" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="2"/>
@@ -3656,7 +3566,7 @@
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="1"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="4"/>
       <c r="D176" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3667,174 +3577,186 @@
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>214</v>
+      <c r="B177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="25"/>
-      <c r="C178" s="18" t="s">
-        <v>261</v>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="25"/>
-      <c r="C179" s="18" t="s">
-        <v>123</v>
+      <c r="B179" s="11"/>
+      <c r="C179" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="25"/>
-      <c r="C180" s="18" t="s">
-        <v>262</v>
+      <c r="B180" s="1"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="24"/>
-      <c r="C181" s="17" t="s">
-        <v>215</v>
+      <c r="B181" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="18" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D183" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B183" s="25"/>
+      <c r="C183" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="11"/>
-      <c r="C184" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D184" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B184" s="25"/>
+      <c r="C184" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D186" s="1">
+      <c r="B186" s="1"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="1" t="str">
+      <c r="B187" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D187" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>216</v>
+      <c r="B188" s="11"/>
+      <c r="C188" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="24"/>
-      <c r="C189" s="17" t="s">
-        <v>127</v>
+      <c r="B189" s="1"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="1" t="str">
+      <c r="B190" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D190" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>128</v>
+      <c r="B191" s="3"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="25"/>
-      <c r="C192" s="18" t="s">
-        <v>129</v>
+      <c r="B192" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,7 +3765,7 @@
       </c>
       <c r="B193" s="24"/>
       <c r="C193" s="17" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -3861,66 +3783,54 @@
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D195" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B195" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="11"/>
-      <c r="C196" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D196" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B196" s="25"/>
+      <c r="C196" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="17" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D198" s="1">
-        <f t="shared" ref="D198:D261" si="3">IF(C198&lt;&gt;"",1,"")</f>
-        <v>1</v>
+      <c r="B198" s="1"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="14" t="s">
-        <v>143</v>
+      <c r="B199" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D199" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3928,12 +3838,12 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="13"/>
-      <c r="C200" s="14" t="s">
-        <v>144</v>
+      <c r="B200" s="11"/>
+      <c r="C200" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D200" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3941,35 +3851,35 @@
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="11"/>
-      <c r="C201" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D201" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B201" s="1"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="1"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B202" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D202" s="1">
+        <f t="shared" ref="D202:D265" si="3">IF(C202&lt;&gt;"",1,"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>146</v>
+      <c r="B203" s="13"/>
+      <c r="C203" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="3"/>
@@ -3982,7 +3892,7 @@
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="14" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="D204" s="1">
         <f t="shared" si="3"/>
@@ -3995,7 +3905,7 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D205" s="1">
         <f t="shared" si="3"/>
@@ -4018,10 +3928,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="D207" s="1">
         <f t="shared" si="3"/>
@@ -4032,9 +3942,9 @@
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12" t="s">
-        <v>148</v>
+      <c r="B208" s="13"/>
+      <c r="C208" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="D208" s="1">
         <f t="shared" si="3"/>
@@ -4045,35 +3955,35 @@
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D209" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D210" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B210" s="1"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="13"/>
-      <c r="C211" s="14" t="s">
-        <v>150</v>
+      <c r="B211" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="D211" s="1">
         <f t="shared" si="3"/>
@@ -4084,9 +3994,9 @@
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="13"/>
-      <c r="C212" s="14" t="s">
-        <v>151</v>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D212" s="1">
         <f t="shared" si="3"/>
@@ -4097,22 +4007,22 @@
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="13"/>
-      <c r="C213" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D213" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B213" s="1"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="13"/>
-      <c r="C214" s="14" t="s">
-        <v>153</v>
+      <c r="B214" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D214" s="1">
         <f t="shared" si="3"/>
@@ -4123,9 +4033,9 @@
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="11"/>
-      <c r="C215" s="12" t="s">
-        <v>154</v>
+      <c r="B215" s="13"/>
+      <c r="C215" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D215" s="1">
         <f t="shared" si="3"/>
@@ -4136,22 +4046,22 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="1"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D216" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>155</v>
+      <c r="B217" s="13"/>
+      <c r="C217" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="3"/>
@@ -4164,7 +4074,7 @@
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="3"/>
@@ -4175,9 +4085,9 @@
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="14" t="s">
-        <v>157</v>
+      <c r="B219" s="11"/>
+      <c r="C219" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D219" s="1">
         <f t="shared" si="3"/>
@@ -4188,22 +4098,22 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D220" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B220" s="1"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="14" t="s">
-        <v>159</v>
+      <c r="B221" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D221" s="1">
         <f t="shared" si="3"/>
@@ -4214,9 +4124,9 @@
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="11"/>
-      <c r="C222" s="12" t="s">
-        <v>248</v>
+      <c r="B222" s="13"/>
+      <c r="C222" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D222" s="1">
         <f t="shared" si="3"/>
@@ -4227,22 +4137,22 @@
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="1"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D223" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>249</v>
+      <c r="B224" s="13"/>
+      <c r="C224" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="3"/>
@@ -4255,7 +4165,7 @@
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="3"/>
@@ -4266,9 +4176,9 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="13"/>
-      <c r="C226" s="14" t="s">
-        <v>161</v>
+      <c r="B226" s="11"/>
+      <c r="C226" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="3"/>
@@ -4279,22 +4189,22 @@
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="13"/>
-      <c r="C227" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D227" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B227" s="1"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="11"/>
-      <c r="C228" s="12" t="s">
-        <v>226</v>
+      <c r="B228" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="D228" s="1">
         <f t="shared" si="3"/>
@@ -4305,22 +4215,22 @@
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="1"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D229" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>250</v>
+      <c r="B230" s="13"/>
+      <c r="C230" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="3"/>
@@ -4331,22 +4241,22 @@
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="3"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D231" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>227</v>
+      <c r="B232" s="11"/>
+      <c r="C232" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="3"/>
@@ -4357,7 +4267,7 @@
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="3"/>
+      <c r="B233" s="1"/>
       <c r="C233" s="4"/>
       <c r="D233" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4368,11 +4278,11 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>251</v>
+      <c r="B234" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="D234" s="1">
         <f t="shared" si="3"/>
@@ -4383,22 +4293,22 @@
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="13"/>
-      <c r="C235" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D235" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B235" s="3"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="13"/>
-      <c r="C236" s="14" t="s">
-        <v>252</v>
+      <c r="B236" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D236" s="1">
         <f t="shared" si="3"/>
@@ -4409,35 +4319,35 @@
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D237" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B237" s="3"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="1"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B238" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D238" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>164</v>
+      <c r="B239" s="13"/>
+      <c r="C239" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="D239" s="1">
         <f t="shared" si="3"/>
@@ -4450,7 +4360,7 @@
       </c>
       <c r="B240" s="13"/>
       <c r="C240" s="14" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="D240" s="1">
         <f t="shared" si="3"/>
@@ -4463,7 +4373,7 @@
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="3"/>
@@ -4486,10 +4396,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D243" s="1">
         <f t="shared" si="3"/>
@@ -4500,9 +4410,9 @@
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="11"/>
-      <c r="C244" s="12" t="s">
-        <v>167</v>
+      <c r="B244" s="13"/>
+      <c r="C244" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="D244" s="1">
         <f t="shared" si="3"/>
@@ -4513,35 +4423,35 @@
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="1"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D245" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D246" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B246" s="1"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12" t="s">
-        <v>253</v>
+      <c r="B247" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D247" s="1">
         <f t="shared" si="3"/>
@@ -4552,48 +4462,48 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="1"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D248" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D249" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B249" s="1"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B250" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D250" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>170</v>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D251" s="1">
         <f t="shared" si="3"/>
@@ -4604,61 +4514,61 @@
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D252" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B252" s="1"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="1"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B253" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D253" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D254" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B254" s="3"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B255" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D255" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>231</v>
+      <c r="B256" s="11"/>
+      <c r="C256" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="D256" s="1">
         <f t="shared" si="3"/>
@@ -4669,7 +4579,7 @@
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="3"/>
+      <c r="B257" s="1"/>
       <c r="C257" s="4"/>
       <c r="D257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4681,10 +4591,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D258" s="1">
         <f t="shared" si="3"/>
@@ -4706,11 +4616,11 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>173</v>
+      <c r="B260" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D260" s="1">
         <f t="shared" si="3"/>
@@ -4721,25 +4631,25 @@
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="13"/>
-      <c r="C261" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D261" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B261" s="3"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="13"/>
-      <c r="C262" s="14" t="s">
-        <v>175</v>
+      <c r="B262" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D262" s="1">
-        <f t="shared" ref="D262:D294" si="4">IF(C262&lt;&gt;"",1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4747,25 +4657,25 @@
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="13"/>
-      <c r="C263" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D263" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="B263" s="3"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="11"/>
-      <c r="C264" s="12" t="s">
-        <v>177</v>
+      <c r="B264" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D264" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4773,25 +4683,25 @@
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="1"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D265" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>178</v>
+      <c r="B266" s="13"/>
+      <c r="C266" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="D266" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D266:D298" si="4">IF(C266&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -4799,9 +4709,9 @@
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="11"/>
-      <c r="C267" s="12" t="s">
-        <v>232</v>
+      <c r="B267" s="13"/>
+      <c r="C267" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="D267" s="1">
         <f t="shared" si="4"/>
@@ -4812,195 +4722,195 @@
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="1"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="1" t="str">
+      <c r="B268" s="11"/>
+      <c r="C268" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D268" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C269" s="22" t="s">
-        <v>233</v>
+      <c r="B269" s="1"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="4"/>
+      <c r="B270" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D270" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C271" s="22" t="s">
-        <v>254</v>
+      <c r="B271" s="11"/>
+      <c r="C271" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D271" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="3"/>
+      <c r="B272" s="1"/>
       <c r="C272" s="4"/>
+      <c r="D272" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C273" s="19" t="s">
-        <v>234</v>
+      <c r="B273" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="25"/>
-      <c r="C274" s="18" t="s">
-        <v>235</v>
-      </c>
+      <c r="B274" s="3"/>
+      <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="25"/>
-      <c r="C275" s="18" t="s">
-        <v>255</v>
+      <c r="B275" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="25"/>
-      <c r="C276" s="18" t="s">
-        <v>236</v>
-      </c>
+      <c r="B276" s="3"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="24"/>
-      <c r="C277" s="17" t="s">
-        <v>247</v>
+      <c r="B277" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C277" s="19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="1"/>
-      <c r="C278" s="4"/>
+      <c r="B278" s="25"/>
+      <c r="C278" s="18" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C279" s="19" t="s">
-        <v>179</v>
+      <c r="B279" s="25"/>
+      <c r="C279" s="18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="24"/>
-      <c r="C280" s="17" t="s">
-        <v>246</v>
+      <c r="B280" s="25"/>
+      <c r="C280" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="1"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B281" s="24"/>
+      <c r="C281" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D282" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="3"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B283" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D284" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="B284" s="24"/>
+      <c r="C284" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="13"/>
-      <c r="C285" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D285" s="1">
+      <c r="B285" s="1"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="11"/>
-      <c r="C286" s="12" t="s">
-        <v>281</v>
+      <c r="B286" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D286" s="1">
         <f t="shared" si="4"/>
@@ -5011,7 +4921,7 @@
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="1"/>
+      <c r="B287" s="3"/>
       <c r="C287" s="4"/>
       <c r="D287" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5022,11 +4932,11 @@
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>245</v>
+      <c r="B288" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="D288" s="1">
         <f t="shared" si="4"/>
@@ -5037,22 +4947,22 @@
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="3"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="1" t="str">
+      <c r="B289" s="13"/>
+      <c r="C289" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D289" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>181</v>
+      <c r="B290" s="11"/>
+      <c r="C290" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="D290" s="1">
         <f t="shared" si="4"/>
@@ -5063,22 +4973,22 @@
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="13"/>
-      <c r="C291" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D291" s="1">
+      <c r="B291" s="1"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12" t="s">
-        <v>183</v>
+      <c r="B292" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D292" s="1">
         <f t="shared" si="4"/>
@@ -5089,7 +4999,7 @@
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="1"/>
+      <c r="B293" s="3"/>
       <c r="C293" s="4"/>
       <c r="D293" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5100,19 +5010,71 @@
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>239</v>
+      <c r="B294" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D294" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="13"/>
+      <c r="C295" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D295" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="11"/>
+      <c r="C296" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D296" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D298" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H270" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
+  <autoFilter ref="A1:H274" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35A3E0-B6A4-4FB7-A822-02EB82DD8CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F8F0B-418F-44BD-93E0-96AAA0B360C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$275</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="310">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -408,9 +408,6 @@
     <t>  941:     Response response2 = await ApiHelper.getNroRegistroMaxNotificaciones();</t>
   </si>
   <si>
-    <t>  480:         await ApiHelper.getNotificaciones(widget.juicio.iDCASO.toString());</t>
-  </si>
-  <si>
     <t>   971:     Response response = await ApiHelper.getTicket(_codigo);</t>
   </si>
   <si>
@@ -961,13 +958,25 @@
   </si>
   <si>
     <t>Grupo TAL tiene VisualizaSPR en null y VisualizaAPP en 0 por lo que no salen Talleres en VistasCausantesApp</t>
+  </si>
+  <si>
+    <t>Tabla VehiculosPartesTurnos 5 registros: NO LO USAN</t>
+  </si>
+  <si>
+    <t>Tabla CausantesNovedades tiene 30 Registros: NO LO USAN</t>
+  </si>
+  <si>
+    <t>lib\screens\legales\notificaciones_screen.dart</t>
+  </si>
+  <si>
+    <t>  479:     response =await ApiHelper.getNotificaciones(widget.juicio.iDCASO.toString());</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,6 +1023,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -1168,7 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1250,6 +1266,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,11 +1607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1610,22 +1627,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1633,15 +1650,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D298)</f>
-        <v>126</v>
+        <f>SUM(D3:D299)</f>
+        <v>112</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1656,7 +1673,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.43243243243243246</v>
+        <v>0.49775784753363228</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1674,7 +1691,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1683,7 +1700,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1692,7 +1709,7 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1701,7 +1718,7 @@
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1710,7 +1727,7 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,7 +1736,7 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1732,10 +1749,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1744,7 +1761,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1753,7 +1770,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1762,7 +1779,7 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,10 +1796,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -1795,7 +1812,7 @@
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1804,7 +1821,7 @@
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,7 +1830,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1832,10 +1849,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -1848,7 +1865,7 @@
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1857,7 +1874,7 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,7 +1883,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,10 +1902,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -1912,7 +1929,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1921,7 +1938,7 @@
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1930,7 +1947,7 @@
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,7 +1956,7 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,7 +1965,7 @@
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1964,7 +1981,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1980,7 +1997,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1989,7 +2006,7 @@
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1998,7 +2015,7 @@
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2007,7 +2024,7 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2016,7 +2033,7 @@
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,7 +2042,7 @@
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2034,7 +2051,7 @@
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2043,7 +2060,7 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2052,7 +2069,7 @@
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,7 +2078,7 @@
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,7 +2094,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2086,7 +2103,7 @@
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2095,7 +2112,7 @@
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2104,7 +2121,7 @@
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2122,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2131,7 +2148,7 @@
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2164,7 +2181,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2193,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2207,7 +2224,7 @@
         <v/>
       </c>
       <c r="E60" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2227,7 +2244,7 @@
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2258,7 +2275,7 @@
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2267,7 +2284,7 @@
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,7 +2315,7 @@
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2308,7 +2325,7 @@
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="1" t="str">
-        <f t="shared" ref="D70:D137" si="1">IF(C70&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D70:D133" si="1">IF(C70&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -2329,7 +2346,7 @@
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2347,7 +2364,7 @@
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,7 +2399,7 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
@@ -2434,7 +2451,7 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
@@ -2486,7 +2503,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
@@ -2525,7 +2542,7 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="1"/>
@@ -2538,7 +2555,7 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="1"/>
@@ -2577,7 +2594,7 @@
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="1"/>
@@ -2590,7 +2607,7 @@
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="1"/>
@@ -2603,7 +2620,7 @@
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="1"/>
@@ -2616,7 +2633,7 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="1"/>
@@ -2655,7 +2672,7 @@
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="1"/>
@@ -2668,7 +2685,7 @@
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="1"/>
@@ -2720,7 +2737,7 @@
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="1"/>
@@ -2733,7 +2750,7 @@
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="1"/>
@@ -2746,7 +2763,7 @@
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="1"/>
@@ -2759,7 +2776,7 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="1"/>
@@ -2820,7 +2837,7 @@
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2829,7 +2846,7 @@
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2847,7 +2864,7 @@
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2905,7 +2922,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2914,7 +2931,7 @@
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2963,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2972,7 +2989,7 @@
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,7 +2998,7 @@
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3003,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3012,7 +3029,7 @@
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,7 +3038,7 @@
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,10 +3057,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>101</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3073,7 +3093,7 @@
         <v>99</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3082,7 +3102,7 @@
       </c>
       <c r="B138" s="32"/>
       <c r="C138" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3101,7 +3121,7 @@
       <c r="B140" s="1"/>
       <c r="C140" s="4"/>
       <c r="D140" s="1" t="str">
-        <f t="shared" ref="D139:D201" si="2">IF(C140&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D140:D202" si="2">IF(C140&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -3113,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="2"/>
@@ -3126,7 +3146,7 @@
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="2"/>
@@ -3139,7 +3159,7 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="2"/>
@@ -3165,7 +3185,7 @@
         <v>21</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="2"/>
@@ -3230,7 +3250,7 @@
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="2"/>
@@ -3282,7 +3302,7 @@
         <v>23</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="2"/>
@@ -3360,7 +3380,7 @@
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="2"/>
@@ -3395,28 +3415,20 @@
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C163" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D163" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="C163" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12" t="s">
+      <c r="B164" s="24"/>
+      <c r="C164" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="D164" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3434,15 +3446,11 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="D166" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3460,15 +3468,11 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="D168" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3486,15 +3490,11 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="D170" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -3512,28 +3512,20 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="D172" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D173" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B173" s="24"/>
+      <c r="C173" s="17" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3542,24 +3534,16 @@
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="4"/>
-      <c r="D174" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="D175" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,374 +3561,349 @@
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="D177" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D178" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B178" s="24"/>
+      <c r="C178" s="17" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D179" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="1"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B180" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>180</v>
-      </c>
-      <c r="B181" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>214</v>
+        <v>181</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>181</v>
-      </c>
-      <c r="B182" s="25"/>
-      <c r="C182" s="18" t="s">
-        <v>261</v>
+        <v>182</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="25"/>
       <c r="C183" s="18" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="25"/>
       <c r="C184" s="18" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>184</v>
-      </c>
-      <c r="B185" s="24"/>
-      <c r="C185" s="17" t="s">
-        <v>215</v>
+        <v>185</v>
+      </c>
+      <c r="B185" s="25"/>
+      <c r="C185" s="18" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>185</v>
-      </c>
-      <c r="B186" s="1"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>186</v>
+      </c>
+      <c r="B186" s="24"/>
+      <c r="C186" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>186</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D187" s="1">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>187</v>
-      </c>
-      <c r="B188" s="11"/>
-      <c r="C188" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D188" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>188</v>
-      </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>189</v>
+      </c>
+      <c r="B189" s="24"/>
+      <c r="C189" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D190" s="1">
+        <v>190</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>190</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>191</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>191</v>
-      </c>
-      <c r="B192" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>193</v>
+      </c>
+      <c r="B193" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C193" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E193" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>194</v>
+      </c>
+      <c r="B194" s="24"/>
+      <c r="C194" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>195</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>196</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>197</v>
+      </c>
+      <c r="B197" s="25"/>
+      <c r="C197" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>198</v>
+      </c>
+      <c r="B198" s="24"/>
+      <c r="C198" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>192</v>
-      </c>
-      <c r="B193" s="24"/>
-      <c r="C193" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>193</v>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="1" t="str">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>199</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>194</v>
-      </c>
-      <c r="B195" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C195" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>195</v>
-      </c>
-      <c r="B196" s="25"/>
-      <c r="C196" s="18" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>200</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>196</v>
-      </c>
-      <c r="B197" s="24"/>
-      <c r="C197" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>197</v>
-      </c>
-      <c r="B198" s="1"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>198</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D199" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>199</v>
-      </c>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>200</v>
-      </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="1" t="str">
+        <v>201</v>
+      </c>
+      <c r="B201" s="11"/>
+      <c r="C201" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D201" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>201</v>
-      </c>
-      <c r="B202" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>203</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C202" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D202" s="1">
-        <f t="shared" ref="D202:D265" si="3">IF(C202&lt;&gt;"",1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>202</v>
-      </c>
-      <c r="B203" s="13"/>
-      <c r="C203" s="14" t="s">
-        <v>143</v>
+      <c r="C203" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D203" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D203:D266" si="3">IF(C203&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D204" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>205</v>
+      </c>
+      <c r="B205" s="13"/>
+      <c r="C205" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D205" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>206</v>
+      </c>
+      <c r="B206" s="11"/>
+      <c r="C206" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D204" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>204</v>
-      </c>
-      <c r="B205" s="11"/>
-      <c r="C205" s="12" t="s">
+      <c r="D206" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>207</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>208</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D205" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>205</v>
-      </c>
-      <c r="B206" s="1"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>206</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D207" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>207</v>
-      </c>
-      <c r="B208" s="13"/>
-      <c r="C208" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="D208" s="1">
         <f t="shared" si="3"/>
@@ -3953,11 +3912,11 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>208</v>
-      </c>
-      <c r="B209" s="11"/>
-      <c r="C209" s="12" t="s">
-        <v>147</v>
+        <v>209</v>
+      </c>
+      <c r="B209" s="13"/>
+      <c r="C209" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="D209" s="1">
         <f t="shared" si="3"/>
@@ -3966,37 +3925,37 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>209</v>
-      </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>210</v>
+      </c>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D210" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>210</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D211" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>211</v>
-      </c>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12" t="s">
-        <v>148</v>
+        <v>212</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D212" s="1">
         <f t="shared" si="3"/>
@@ -4005,37 +3964,37 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>212</v>
-      </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>213</v>
+      </c>
+      <c r="B213" s="11"/>
+      <c r="C213" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D213" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>213</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D214" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>214</v>
-      </c>
-      <c r="B215" s="13"/>
-      <c r="C215" s="14" t="s">
-        <v>150</v>
+        <v>215</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D215" s="1">
         <f t="shared" si="3"/>
@@ -4044,11 +4003,11 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D216" s="1">
         <f t="shared" si="3"/>
@@ -4057,11 +4016,11 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="3"/>
@@ -4070,11 +4029,11 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="3"/>
@@ -4083,11 +4042,11 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>218</v>
-      </c>
-      <c r="B219" s="11"/>
-      <c r="C219" s="12" t="s">
-        <v>154</v>
+        <v>219</v>
+      </c>
+      <c r="B219" s="13"/>
+      <c r="C219" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="D219" s="1">
         <f t="shared" si="3"/>
@@ -4096,37 +4055,37 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>219</v>
-      </c>
-      <c r="B220" s="1"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>220</v>
+      </c>
+      <c r="B220" s="11"/>
+      <c r="C220" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D220" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>220</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D221" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>221</v>
-      </c>
-      <c r="B222" s="13"/>
-      <c r="C222" s="14" t="s">
-        <v>156</v>
+        <v>222</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D222" s="1">
         <f t="shared" si="3"/>
@@ -4135,11 +4094,11 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" s="13"/>
       <c r="C223" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D223" s="1">
         <f t="shared" si="3"/>
@@ -4148,11 +4107,11 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="3"/>
@@ -4161,11 +4120,11 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="3"/>
@@ -4174,11 +4133,11 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>225</v>
-      </c>
-      <c r="B226" s="11"/>
-      <c r="C226" s="12" t="s">
-        <v>248</v>
+        <v>226</v>
+      </c>
+      <c r="B226" s="13"/>
+      <c r="C226" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="3"/>
@@ -4187,37 +4146,37 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>226</v>
-      </c>
-      <c r="B227" s="1"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>227</v>
+      </c>
+      <c r="B227" s="11"/>
+      <c r="C227" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D227" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>227</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D228" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>228</v>
-      </c>
-      <c r="B229" s="13"/>
-      <c r="C229" s="14" t="s">
-        <v>160</v>
+        <v>229</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="D229" s="1">
         <f t="shared" si="3"/>
@@ -4226,11 +4185,11 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="3"/>
@@ -4239,11 +4198,11 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" s="13"/>
       <c r="C231" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D231" s="1">
         <f t="shared" si="3"/>
@@ -4252,11 +4211,11 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>231</v>
-      </c>
-      <c r="B232" s="11"/>
-      <c r="C232" s="12" t="s">
-        <v>226</v>
+        <v>232</v>
+      </c>
+      <c r="B232" s="13"/>
+      <c r="C232" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="3"/>
@@ -4265,89 +4224,89 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>232</v>
-      </c>
-      <c r="B233" s="1"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>233</v>
+      </c>
+      <c r="B233" s="11"/>
+      <c r="C233" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D233" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>233</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D234" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>234</v>
-      </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>235</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D235" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>235</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D236" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>236</v>
+      </c>
+      <c r="B236" s="3"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>236</v>
-      </c>
-      <c r="B237" s="3"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>237</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D237" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>237</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D238" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="B238" s="3"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>238</v>
-      </c>
-      <c r="B239" s="13"/>
-      <c r="C239" s="14" t="s">
-        <v>163</v>
+        <v>239</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="D239" s="1">
         <f t="shared" si="3"/>
@@ -4356,11 +4315,11 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" s="13"/>
       <c r="C240" s="14" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="D240" s="1">
         <f t="shared" si="3"/>
@@ -4369,11 +4328,11 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>240</v>
-      </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12" t="s">
-        <v>228</v>
+        <v>241</v>
+      </c>
+      <c r="B241" s="13"/>
+      <c r="C241" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="3"/>
@@ -4382,37 +4341,37 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>241</v>
-      </c>
-      <c r="B242" s="1"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>242</v>
+      </c>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D242" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>242</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D243" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>243</v>
-      </c>
-      <c r="B244" s="13"/>
-      <c r="C244" s="14" t="s">
-        <v>165</v>
+        <v>244</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="D244" s="1">
         <f t="shared" si="3"/>
@@ -4421,11 +4380,11 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>244</v>
-      </c>
-      <c r="B245" s="11"/>
-      <c r="C245" s="12" t="s">
-        <v>229</v>
+        <v>245</v>
+      </c>
+      <c r="B245" s="13"/>
+      <c r="C245" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="D245" s="1">
         <f t="shared" si="3"/>
@@ -4434,37 +4393,37 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>245</v>
-      </c>
-      <c r="B246" s="1"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>246</v>
+      </c>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D246" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>246</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D247" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>247</v>
-      </c>
-      <c r="B248" s="11"/>
-      <c r="C248" s="12" t="s">
-        <v>167</v>
+        <v>248</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D248" s="1">
         <f t="shared" si="3"/>
@@ -4473,37 +4432,37 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>248</v>
-      </c>
-      <c r="B249" s="1"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>249</v>
+      </c>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D249" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>249</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D250" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>250</v>
-      </c>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D251" s="1">
         <f t="shared" si="3"/>
@@ -4512,63 +4471,63 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>251</v>
-      </c>
-      <c r="B252" s="1"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>252</v>
+      </c>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D252" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>252</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D253" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>253</v>
-      </c>
-      <c r="B254" s="3"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>254</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D254" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>254</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D255" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>255</v>
-      </c>
-      <c r="B256" s="11"/>
-      <c r="C256" s="12" t="s">
-        <v>171</v>
+        <v>256</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D256" s="1">
         <f t="shared" si="3"/>
@@ -4577,115 +4536,115 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>256</v>
-      </c>
-      <c r="B257" s="1"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>257</v>
+      </c>
+      <c r="B257" s="11"/>
+      <c r="C257" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D257" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>257</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D258" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>258</v>
-      </c>
-      <c r="B259" s="3"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>259</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D259" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>259</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D260" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="B260" s="3"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>260</v>
-      </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>261</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D261" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>261</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D262" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="B262" s="3"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>262</v>
-      </c>
-      <c r="B263" s="3"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>263</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D263" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>263</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D264" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>264</v>
+      </c>
+      <c r="B264" s="3"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>264</v>
-      </c>
-      <c r="B265" s="13"/>
-      <c r="C265" s="14" t="s">
-        <v>174</v>
+        <v>265</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D265" s="1">
         <f t="shared" si="3"/>
@@ -4694,37 +4653,37 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266" s="13"/>
       <c r="C266" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D266" s="1">
-        <f t="shared" ref="D266:D298" si="4">IF(C266&lt;&gt;"",1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D267" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D267:D299" si="4">IF(C267&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>267</v>
-      </c>
-      <c r="B268" s="11"/>
-      <c r="C268" s="12" t="s">
-        <v>177</v>
+        <v>268</v>
+      </c>
+      <c r="B268" s="13"/>
+      <c r="C268" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="D268" s="1">
         <f t="shared" si="4"/>
@@ -4733,37 +4692,37 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>268</v>
-      </c>
-      <c r="B269" s="1"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="1" t="str">
+        <v>269</v>
+      </c>
+      <c r="B269" s="11"/>
+      <c r="C269" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D269" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>269</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D270" s="1">
+        <v>270</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>270</v>
-      </c>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12" t="s">
-        <v>232</v>
+        <v>271</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D271" s="1">
         <f t="shared" si="4"/>
@@ -4772,184 +4731,184 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>271</v>
-      </c>
-      <c r="B272" s="1"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="1" t="str">
+        <v>272</v>
+      </c>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D272" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>272</v>
-      </c>
-      <c r="B273" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C273" s="22" t="s">
-        <v>233</v>
+        <v>273</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>273</v>
-      </c>
-      <c r="B274" s="3"/>
-      <c r="C274" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="B274" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>274</v>
-      </c>
-      <c r="B275" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C275" s="22" t="s">
-        <v>254</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B275" s="3"/>
+      <c r="C275" s="4"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>275</v>
-      </c>
-      <c r="B276" s="3"/>
-      <c r="C276" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>276</v>
-      </c>
-      <c r="B277" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C277" s="19" t="s">
-        <v>234</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B277" s="3"/>
+      <c r="C277" s="4"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>277</v>
-      </c>
-      <c r="B278" s="25"/>
-      <c r="C278" s="18" t="s">
-        <v>235</v>
+        <v>278</v>
+      </c>
+      <c r="B278" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" s="25"/>
       <c r="C279" s="18" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" s="25"/>
       <c r="C280" s="18" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>280</v>
-      </c>
-      <c r="B281" s="24"/>
-      <c r="C281" s="17" t="s">
-        <v>247</v>
+        <v>281</v>
+      </c>
+      <c r="B281" s="25"/>
+      <c r="C281" s="18" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>281</v>
-      </c>
-      <c r="B282" s="1"/>
-      <c r="C282" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="B282" s="24"/>
+      <c r="C282" s="17" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>282</v>
-      </c>
-      <c r="B283" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C283" s="19" t="s">
-        <v>179</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>283</v>
-      </c>
-      <c r="B284" s="24"/>
-      <c r="C284" s="17" t="s">
-        <v>246</v>
+        <v>284</v>
+      </c>
+      <c r="B284" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C284" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>284</v>
-      </c>
-      <c r="B285" s="1"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>285</v>
+      </c>
+      <c r="B285" s="24"/>
+      <c r="C285" s="17" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>285</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D286" s="1">
+        <v>286</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>286</v>
-      </c>
-      <c r="B287" s="3"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="1" t="str">
+        <v>287</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D287" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>287</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D288" s="1">
+        <v>288</v>
+      </c>
+      <c r="B288" s="3"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>288</v>
-      </c>
-      <c r="B289" s="13"/>
-      <c r="C289" s="14" t="s">
-        <v>238</v>
+        <v>289</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="D289" s="1">
         <f t="shared" si="4"/>
@@ -4958,11 +4917,11 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>289</v>
-      </c>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12" t="s">
-        <v>281</v>
+        <v>290</v>
+      </c>
+      <c r="B290" s="13"/>
+      <c r="C290" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="D290" s="1">
         <f t="shared" si="4"/>
@@ -4971,63 +4930,63 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>290</v>
-      </c>
-      <c r="B291" s="1"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="1" t="str">
+        <v>291</v>
+      </c>
+      <c r="B291" s="11"/>
+      <c r="C291" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D291" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>291</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D292" s="1">
+        <v>292</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>292</v>
-      </c>
-      <c r="B293" s="3"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="1" t="str">
+        <v>293</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D293" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>293</v>
-      </c>
-      <c r="B294" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D294" s="1">
+        <v>294</v>
+      </c>
+      <c r="B294" s="3"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>294</v>
-      </c>
-      <c r="B295" s="13"/>
-      <c r="C295" s="14" t="s">
-        <v>182</v>
+        <v>295</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D295" s="1">
         <f t="shared" si="4"/>
@@ -5036,11 +4995,11 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>295</v>
-      </c>
-      <c r="B296" s="11"/>
-      <c r="C296" s="12" t="s">
-        <v>183</v>
+        <v>296</v>
+      </c>
+      <c r="B296" s="13"/>
+      <c r="C296" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="D296" s="1">
         <f t="shared" si="4"/>
@@ -5049,32 +5008,45 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>296</v>
-      </c>
-      <c r="B297" s="1"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="1" t="str">
+        <v>297</v>
+      </c>
+      <c r="B297" s="11"/>
+      <c r="C297" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D297" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>297</v>
-      </c>
-      <c r="B298" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>299</v>
+      </c>
+      <c r="B299" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C298" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D298" s="1">
+      <c r="C299" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D299" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H274" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
+  <autoFilter ref="A1:H275" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5095,7 +5067,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F8F0B-418F-44BD-93E0-96AAA0B360C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B4DE26-FFBE-4BB3-A913-C307DE89AADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="311">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>  479:     response =await ApiHelper.getNotificaciones(widget.juicio.iDCASO.toString());</t>
+  </si>
+  <si>
+    <t>Tabla ElementosEnCalle tiene 7 registros y Tabla ElementosEnCalleD tiene 9 registros: NO LO USAN</t>
   </si>
 </sst>
 </file>
@@ -1651,11 +1654,11 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D3:D299)</f>
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1">
         <v>223</v>
@@ -1673,7 +1676,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.49775784753363228</v>
+        <v>0.57847533632286996</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2525,41 +2528,29 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="14" t="s">
+      <c r="B88" s="25"/>
+      <c r="C88" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12" t="s">
+      <c r="B89" s="24"/>
+      <c r="C89" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2577,67 +2568,47 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14" t="s">
+      <c r="B92" s="25"/>
+      <c r="C92" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="D92" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14" t="s">
+      <c r="B93" s="25"/>
+      <c r="C93" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="D93" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14" t="s">
+      <c r="B94" s="25"/>
+      <c r="C94" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="D94" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12" t="s">
+      <c r="B95" s="24"/>
+      <c r="C95" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="D95" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2651,61 +2622,48 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D97" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14" t="s">
+      <c r="B98" s="25"/>
+      <c r="C98" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14" t="s">
+      <c r="B99" s="25"/>
+      <c r="C99" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="24"/>
+      <c r="C100" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2716,74 +2674,54 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D102" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="14" t="s">
+      <c r="B103" s="25"/>
+      <c r="C103" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D103" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14" t="s">
+      <c r="B104" s="25"/>
+      <c r="C104" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D104" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="14" t="s">
+      <c r="B105" s="25"/>
+      <c r="C105" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D105" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12" t="s">
+      <c r="B106" s="24"/>
+      <c r="C106" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D106" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2794,22 +2732,18 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D108" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2820,7 +2754,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2831,7 +2765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2840,7 +2774,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B4DE26-FFBE-4BB3-A913-C307DE89AADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBFD15-3808-4E66-A1D7-0251F079EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$276</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="314">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -372,9 +372,6 @@
     <t>  1036:       response = await ApiHelper.getGruposFormularios(cliente, tipotrabajo);</t>
   </si>
   <si>
-    <t>  103:         await ApiHelper.getInspecciones(widget.user.idUsuario.toString());</t>
-  </si>
-  <si>
     <t>  439:     Response response = await ApiHelper.getCausante(_codigo);</t>
   </si>
   <si>
@@ -973,6 +970,18 @@
   </si>
   <si>
     <t>Tabla ElementosEnCalle tiene 7 registros y Tabla ElementosEnCalleD tiene 9 registros: NO LO USAN</t>
+  </si>
+  <si>
+    <t>lib\screens\inspecciones\inspecciones_lista_screen:</t>
+  </si>
+  <si>
+    <t>  102:     await ApiHelper.getInspecciones(widget.user.idUsuario.toString());</t>
+  </si>
+  <si>
+    <t>Tabla WRemitosCab tiene 60 registros: casi no lo usan</t>
+  </si>
+  <si>
+    <t>Tabla ObrasReparos tiene 199 registros: lo usan poco</t>
   </si>
 </sst>
 </file>
@@ -1610,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1630,22 +1639,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1653,15 +1662,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D299)</f>
-        <v>94</v>
+        <f>SUM(D3:D300)</f>
+        <v>66</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1">
-        <v>223</v>
+        <f>COUNTBLANK(B1:B300)</f>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1676,7 +1686,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.57847533632286996</v>
+        <v>0.70270270270270274</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1694,7 +1704,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1703,7 +1713,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1712,7 +1722,7 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1721,7 +1731,7 @@
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,7 +1740,7 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1739,7 +1749,7 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1752,10 +1762,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1764,7 +1774,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1773,7 +1783,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1782,7 +1792,7 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1799,10 +1809,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -1815,7 +1825,7 @@
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1824,7 +1834,7 @@
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,7 +1843,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1852,10 +1862,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -1868,7 +1878,7 @@
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1877,7 +1887,7 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1886,7 +1896,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,10 +1915,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -1932,7 +1942,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1941,7 +1951,7 @@
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,7 +1960,7 @@
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1959,7 +1969,7 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1968,7 +1978,7 @@
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1984,7 +1994,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2000,7 +2010,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2009,7 +2019,7 @@
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2018,7 +2028,7 @@
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2027,7 +2037,7 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2036,7 +2046,7 @@
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2045,7 +2055,7 @@
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,7 +2064,7 @@
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2063,7 +2073,7 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2072,7 +2082,7 @@
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2081,7 +2091,7 @@
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2097,7 +2107,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2106,7 +2116,7 @@
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2115,7 +2125,7 @@
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,7 +2134,7 @@
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2142,7 +2152,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2151,7 +2161,7 @@
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2184,7 +2194,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2213,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2227,7 +2237,7 @@
         <v/>
       </c>
       <c r="E60" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2247,7 +2257,7 @@
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,7 +2288,7 @@
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2287,7 +2297,7 @@
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,7 +2328,7 @@
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2349,7 +2359,7 @@
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2367,7 +2377,7 @@
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,7 +2412,7 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
@@ -2454,7 +2464,7 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
@@ -2506,7 +2516,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
@@ -2541,7 +2551,7 @@
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,7 +2560,7 @@
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2581,7 +2591,7 @@
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,7 +2600,7 @@
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2599,7 +2609,7 @@
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2608,7 +2618,7 @@
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,7 +2643,7 @@
         <v>86</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2642,7 +2652,7 @@
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2651,7 +2661,7 @@
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2691,7 +2701,7 @@
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2700,7 +2710,7 @@
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2709,7 +2719,7 @@
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2718,7 +2728,7 @@
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2771,7 +2781,7 @@
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,7 +2790,7 @@
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2798,7 +2808,7 @@
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2856,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,7 +2875,7 @@
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2914,7 +2924,7 @@
         <v>15</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2923,7 +2933,7 @@
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2932,7 +2942,7 @@
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2954,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -2963,7 +2973,7 @@
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,7 +2982,7 @@
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2991,13 +3001,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>101</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3027,7 +3037,7 @@
         <v>99</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3036,7 +3046,7 @@
       </c>
       <c r="B138" s="32"/>
       <c r="C138" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,7 +3065,7 @@
       <c r="B140" s="1"/>
       <c r="C140" s="4"/>
       <c r="D140" s="1" t="str">
-        <f t="shared" ref="D140:D202" si="2">IF(C140&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D140:D203" si="2">IF(C140&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -3063,41 +3073,29 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D141" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="C141" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D142" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B142" s="25"/>
+      <c r="C142" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D143" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B143" s="24"/>
+      <c r="C143" s="17" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3115,28 +3113,20 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D145" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="C145" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12" t="s">
+      <c r="B146" s="24"/>
+      <c r="C146" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="D146" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -3154,67 +3144,47 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D148" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="14" t="s">
+      <c r="B149" s="25"/>
+      <c r="C149" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="D149" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D150" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="B150" s="25"/>
+      <c r="C150" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="13"/>
-      <c r="C151" s="14" t="s">
+      <c r="B151" s="25"/>
+      <c r="C151" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="D151" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12" t="s">
+      <c r="B152" s="24"/>
+      <c r="C152" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -3232,820 +3202,750 @@
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D154" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="C154" s="22" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>154</v>
-      </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D155" s="1">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>155</v>
-      </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>156</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>156</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="25"/>
+      <c r="C157" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="D157" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>157</v>
-      </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="25"/>
+      <c r="C158" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="D158" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>158</v>
-      </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D159" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="B159" s="25"/>
+      <c r="C159" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>159</v>
-      </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D160" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="B160" s="24"/>
+      <c r="C160" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>160</v>
-      </c>
-      <c r="B161" s="11"/>
-      <c r="C161" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D161" s="1">
+        <v>162</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>161</v>
-      </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>163</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>162</v>
-      </c>
-      <c r="B163" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>210</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>163</v>
-      </c>
-      <c r="B164" s="24"/>
-      <c r="C164" s="17" t="s">
-        <v>115</v>
+        <v>165</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>164</v>
-      </c>
-      <c r="B165" s="1"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>166</v>
+      </c>
+      <c r="B165" s="24"/>
+      <c r="C165" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>165</v>
-      </c>
-      <c r="B166" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C166" s="22" t="s">
-        <v>116</v>
+        <v>167</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>166</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>168</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>167</v>
-      </c>
-      <c r="B168" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>117</v>
+        <v>169</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>168</v>
-      </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>170</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>169</v>
-      </c>
-      <c r="B170" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>118</v>
+        <v>171</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>170</v>
-      </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>172</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>171</v>
-      </c>
-      <c r="B172" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>119</v>
+        <v>173</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>172</v>
-      </c>
-      <c r="B173" s="24"/>
-      <c r="C173" s="17" t="s">
-        <v>211</v>
+        <v>174</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>173</v>
-      </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="B174" s="24"/>
+      <c r="C174" s="17" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>174</v>
-      </c>
-      <c r="B175" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>120</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>175</v>
-      </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>177</v>
+      </c>
+      <c r="B176" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>176</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>121</v>
+        <v>178</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>177</v>
-      </c>
-      <c r="B178" s="24"/>
-      <c r="C178" s="17" t="s">
-        <v>212</v>
+        <v>179</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>178</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="B179" s="24"/>
+      <c r="C179" s="17" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>179</v>
-      </c>
-      <c r="B180" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>309</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>181</v>
-      </c>
-      <c r="B181" s="1"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>183</v>
+      </c>
+      <c r="B181" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>182</v>
-      </c>
-      <c r="B182" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>213</v>
+        <v>184</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>183</v>
-      </c>
-      <c r="B183" s="25"/>
-      <c r="C183" s="18" t="s">
-        <v>260</v>
+        <v>185</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B184" s="25"/>
       <c r="C184" s="18" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B185" s="25"/>
       <c r="C185" s="18" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>186</v>
-      </c>
-      <c r="B186" s="24"/>
-      <c r="C186" s="17" t="s">
-        <v>214</v>
+        <v>188</v>
+      </c>
+      <c r="B186" s="25"/>
+      <c r="C186" s="18" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>187</v>
-      </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>189</v>
+      </c>
+      <c r="B187" s="24"/>
+      <c r="C187" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>188</v>
-      </c>
-      <c r="B188" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>123</v>
+        <v>190</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>189</v>
-      </c>
-      <c r="B189" s="24"/>
-      <c r="C189" s="17" t="s">
-        <v>124</v>
+        <v>191</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>190</v>
-      </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>192</v>
+      </c>
+      <c r="B190" s="24"/>
+      <c r="C190" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>191</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>125</v>
+        <v>193</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>192</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>194</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>193</v>
-      </c>
-      <c r="B193" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E193" s="33" t="s">
-        <v>307</v>
+        <v>195</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>194</v>
-      </c>
-      <c r="B194" s="24"/>
-      <c r="C194" s="17" t="s">
-        <v>126</v>
+        <v>196</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E194" s="33" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>195</v>
-      </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>197</v>
+      </c>
+      <c r="B195" s="24"/>
+      <c r="C195" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>196</v>
-      </c>
-      <c r="B196" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>127</v>
+        <v>198</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>197</v>
-      </c>
-      <c r="B197" s="25"/>
-      <c r="C197" s="18" t="s">
-        <v>128</v>
+        <v>199</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>198</v>
-      </c>
-      <c r="B198" s="24"/>
-      <c r="C198" s="17" t="s">
-        <v>216</v>
+        <v>200</v>
+      </c>
+      <c r="B198" s="25"/>
+      <c r="C198" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>199</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>201</v>
+      </c>
+      <c r="B199" s="24"/>
+      <c r="C199" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>200</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D200" s="1">
+        <v>202</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>201</v>
-      </c>
-      <c r="B201" s="11"/>
-      <c r="C201" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D201" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>202</v>
-      </c>
-      <c r="B202" s="1"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>204</v>
+      </c>
+      <c r="B202" s="24"/>
+      <c r="C202" s="17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>203</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D203" s="1">
-        <f t="shared" ref="D203:D266" si="3">IF(C203&lt;&gt;"",1,"")</f>
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>204</v>
-      </c>
-      <c r="B204" s="13"/>
-      <c r="C204" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D204" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E204" s="33" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>205</v>
-      </c>
-      <c r="B205" s="13"/>
-      <c r="C205" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D205" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="B205" s="25"/>
+      <c r="C205" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>206</v>
-      </c>
-      <c r="B206" s="11"/>
-      <c r="C206" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D206" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B206" s="25"/>
+      <c r="C206" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>207</v>
-      </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>209</v>
+      </c>
+      <c r="B207" s="24"/>
+      <c r="C207" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>208</v>
-      </c>
-      <c r="B208" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="1" t="str">
+        <f t="shared" ref="D204:D267" si="3">IF(C208&lt;&gt;"",1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>211</v>
+      </c>
+      <c r="B209" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C209" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>212</v>
+      </c>
+      <c r="B210" s="25"/>
+      <c r="C210" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>213</v>
+      </c>
+      <c r="B211" s="24"/>
+      <c r="C211" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D208" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>209</v>
-      </c>
-      <c r="B209" s="13"/>
-      <c r="C209" s="14" t="s">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>214</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>215</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D209" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>210</v>
-      </c>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12" t="s">
+      <c r="E213" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>216</v>
+      </c>
+      <c r="B214" s="24"/>
+      <c r="C214" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D210" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>211</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>212</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D212" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>213</v>
-      </c>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12" t="s">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>217</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>218</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D213" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>214</v>
-      </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>215</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D215" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>216</v>
-      </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="D216" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D219" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>222</v>
+      </c>
+      <c r="B220" s="13"/>
+      <c r="C220" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D220" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>223</v>
+      </c>
+      <c r="B221" s="11"/>
+      <c r="C221" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D219" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>220</v>
-      </c>
-      <c r="B220" s="11"/>
-      <c r="C220" s="12" t="s">
+      <c r="D221" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>224</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>225</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D220" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>221</v>
-      </c>
-      <c r="B221" s="1"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>222</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D222" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
-        <v>223</v>
-      </c>
-      <c r="B223" s="13"/>
-      <c r="C223" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="D223" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="3"/>
@@ -4054,11 +3954,11 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="3"/>
@@ -4067,11 +3967,11 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B226" s="13"/>
       <c r="C226" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="3"/>
@@ -4080,11 +3980,11 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>227</v>
-      </c>
-      <c r="B227" s="11"/>
-      <c r="C227" s="12" t="s">
-        <v>247</v>
+        <v>229</v>
+      </c>
+      <c r="B227" s="13"/>
+      <c r="C227" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="D227" s="1">
         <f t="shared" si="3"/>
@@ -4093,37 +3993,37 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>228</v>
-      </c>
-      <c r="B228" s="1"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>230</v>
+      </c>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D228" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>229</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D229" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>230</v>
-      </c>
-      <c r="B230" s="13"/>
-      <c r="C230" s="14" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="3"/>
@@ -4132,11 +4032,11 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B231" s="13"/>
       <c r="C231" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D231" s="1">
         <f t="shared" si="3"/>
@@ -4145,11 +4045,11 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B232" s="13"/>
       <c r="C232" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="3"/>
@@ -4158,11 +4058,11 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>233</v>
-      </c>
-      <c r="B233" s="11"/>
-      <c r="C233" s="12" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="B233" s="13"/>
+      <c r="C233" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="D233" s="1">
         <f t="shared" si="3"/>
@@ -4171,89 +4071,89 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>234</v>
-      </c>
-      <c r="B234" s="1"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>236</v>
+      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D234" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>235</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D235" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>236</v>
-      </c>
-      <c r="B236" s="3"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>238</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D236" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>237</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D237" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="B237" s="3"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>238</v>
-      </c>
-      <c r="B238" s="3"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>240</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D238" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>239</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D239" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>240</v>
-      </c>
-      <c r="B240" s="13"/>
-      <c r="C240" s="14" t="s">
-        <v>162</v>
+        <v>242</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="D240" s="1">
         <f t="shared" si="3"/>
@@ -4262,11 +4162,11 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B241" s="13"/>
       <c r="C241" s="14" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="3"/>
@@ -4275,11 +4175,11 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>242</v>
-      </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12" t="s">
-        <v>227</v>
+        <v>244</v>
+      </c>
+      <c r="B242" s="13"/>
+      <c r="C242" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="D242" s="1">
         <f t="shared" si="3"/>
@@ -4288,37 +4188,37 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>243</v>
-      </c>
-      <c r="B243" s="1"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>245</v>
+      </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D243" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>244</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D244" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>245</v>
-      </c>
-      <c r="B245" s="13"/>
-      <c r="C245" s="14" t="s">
-        <v>164</v>
+        <v>247</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D245" s="1">
         <f t="shared" si="3"/>
@@ -4327,11 +4227,11 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>246</v>
-      </c>
-      <c r="B246" s="11"/>
-      <c r="C246" s="12" t="s">
-        <v>228</v>
+        <v>248</v>
+      </c>
+      <c r="B246" s="13"/>
+      <c r="C246" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="D246" s="1">
         <f t="shared" si="3"/>
@@ -4340,37 +4240,37 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>247</v>
-      </c>
-      <c r="B247" s="1"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>249</v>
+      </c>
+      <c r="B247" s="11"/>
+      <c r="C247" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D247" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>248</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D248" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>249</v>
-      </c>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12" t="s">
-        <v>166</v>
+        <v>251</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D249" s="1">
         <f t="shared" si="3"/>
@@ -4379,37 +4279,37 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>250</v>
-      </c>
-      <c r="B250" s="1"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>252</v>
+      </c>
+      <c r="B250" s="11"/>
+      <c r="C250" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D250" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>251</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D251" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>252</v>
-      </c>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D252" s="1">
         <f t="shared" si="3"/>
@@ -4418,63 +4318,63 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>253</v>
-      </c>
-      <c r="B253" s="1"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>255</v>
+      </c>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D253" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>254</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D254" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>255</v>
-      </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>257</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D255" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>256</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D256" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>257</v>
-      </c>
-      <c r="B257" s="11"/>
-      <c r="C257" s="12" t="s">
-        <v>170</v>
+        <v>259</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="D257" s="1">
         <f t="shared" si="3"/>
@@ -4483,115 +4383,115 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>258</v>
-      </c>
-      <c r="B258" s="1"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>260</v>
+      </c>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D258" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>259</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D259" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>260</v>
-      </c>
-      <c r="B260" s="3"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>262</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D260" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>261</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D261" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>263</v>
+      </c>
+      <c r="B261" s="3"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>262</v>
-      </c>
-      <c r="B262" s="3"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>264</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D262" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>263</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D263" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>265</v>
+      </c>
+      <c r="B263" s="3"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>264</v>
-      </c>
-      <c r="B264" s="3"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>266</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D264" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>265</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D265" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="B265" s="3"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>266</v>
-      </c>
-      <c r="B266" s="13"/>
-      <c r="C266" s="14" t="s">
-        <v>173</v>
+        <v>268</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D266" s="1">
         <f t="shared" si="3"/>
@@ -4600,37 +4500,37 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D267" s="1">
-        <f t="shared" ref="D267:D299" si="4">IF(C267&lt;&gt;"",1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B268" s="13"/>
       <c r="C268" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D268" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D268:D300" si="4">IF(C268&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>269</v>
-      </c>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12" t="s">
-        <v>176</v>
+        <v>271</v>
+      </c>
+      <c r="B269" s="13"/>
+      <c r="C269" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="D269" s="1">
         <f t="shared" si="4"/>
@@ -4639,37 +4539,37 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>270</v>
-      </c>
-      <c r="B270" s="1"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="1" t="str">
+        <v>272</v>
+      </c>
+      <c r="B270" s="11"/>
+      <c r="C270" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D270" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>271</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D271" s="1">
+        <v>273</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>272</v>
-      </c>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12" t="s">
-        <v>231</v>
+        <v>274</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="D272" s="1">
         <f t="shared" si="4"/>
@@ -4678,184 +4578,184 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>273</v>
-      </c>
-      <c r="B273" s="1"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="1" t="str">
+        <v>275</v>
+      </c>
+      <c r="B273" s="11"/>
+      <c r="C273" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D273" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>274</v>
-      </c>
-      <c r="B274" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>232</v>
+        <v>276</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>275</v>
-      </c>
-      <c r="B275" s="3"/>
-      <c r="C275" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="B275" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>276</v>
-      </c>
-      <c r="B276" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>253</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B276" s="3"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>277</v>
-      </c>
-      <c r="B277" s="3"/>
-      <c r="C277" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>278</v>
-      </c>
-      <c r="B278" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C278" s="19" t="s">
-        <v>233</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B278" s="3"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>279</v>
-      </c>
-      <c r="B279" s="25"/>
-      <c r="C279" s="18" t="s">
-        <v>234</v>
+        <v>281</v>
+      </c>
+      <c r="B279" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B280" s="25"/>
       <c r="C280" s="18" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B281" s="25"/>
       <c r="C281" s="18" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>282</v>
-      </c>
-      <c r="B282" s="24"/>
-      <c r="C282" s="17" t="s">
-        <v>246</v>
+        <v>284</v>
+      </c>
+      <c r="B282" s="25"/>
+      <c r="C282" s="18" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>283</v>
-      </c>
-      <c r="B283" s="1"/>
-      <c r="C283" s="4"/>
+        <v>285</v>
+      </c>
+      <c r="B283" s="24"/>
+      <c r="C283" s="17" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>284</v>
-      </c>
-      <c r="B284" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C284" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>285</v>
-      </c>
-      <c r="B285" s="24"/>
-      <c r="C285" s="17" t="s">
-        <v>245</v>
+        <v>287</v>
+      </c>
+      <c r="B285" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>286</v>
-      </c>
-      <c r="B286" s="1"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>288</v>
+      </c>
+      <c r="B286" s="24"/>
+      <c r="C286" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>287</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D287" s="1">
+        <v>289</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>288</v>
-      </c>
-      <c r="B288" s="3"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="1" t="str">
+        <v>290</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D288" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>289</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D289" s="1">
+        <v>291</v>
+      </c>
+      <c r="B289" s="3"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>290</v>
-      </c>
-      <c r="B290" s="13"/>
-      <c r="C290" s="14" t="s">
-        <v>237</v>
+        <v>292</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="D290" s="1">
         <f t="shared" si="4"/>
@@ -4864,11 +4764,11 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>291</v>
-      </c>
-      <c r="B291" s="11"/>
-      <c r="C291" s="12" t="s">
-        <v>280</v>
+        <v>293</v>
+      </c>
+      <c r="B291" s="13"/>
+      <c r="C291" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="D291" s="1">
         <f t="shared" si="4"/>
@@ -4877,63 +4777,63 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>292</v>
-      </c>
-      <c r="B292" s="1"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="1" t="str">
+        <v>294</v>
+      </c>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D292" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>293</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D293" s="1">
+        <v>295</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>294</v>
-      </c>
-      <c r="B294" s="3"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="1" t="str">
+        <v>296</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D294" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>295</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C295" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D295" s="1">
+        <v>297</v>
+      </c>
+      <c r="B295" s="3"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>296</v>
-      </c>
-      <c r="B296" s="13"/>
-      <c r="C296" s="14" t="s">
-        <v>181</v>
+        <v>298</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D296" s="1">
         <f t="shared" si="4"/>
@@ -4942,11 +4842,11 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>297</v>
-      </c>
-      <c r="B297" s="11"/>
-      <c r="C297" s="12" t="s">
-        <v>182</v>
+        <v>299</v>
+      </c>
+      <c r="B297" s="13"/>
+      <c r="C297" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="D297" s="1">
         <f t="shared" si="4"/>
@@ -4955,32 +4855,45 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>298</v>
-      </c>
-      <c r="B298" s="1"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="1" t="str">
+        <v>300</v>
+      </c>
+      <c r="B298" s="11"/>
+      <c r="C298" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D298" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>299</v>
-      </c>
-      <c r="B299" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>302</v>
+      </c>
+      <c r="B300" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C299" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D299" s="1">
+      <c r="C300" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D300" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H275" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
+  <autoFilter ref="A1:H276" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5001,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBFD15-3808-4E66-A1D7-0251F079EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6876F-9890-4CA8-BE4E-32C05D479DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -1622,8 +1622,8 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E213" sqref="E213"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1663,11 +1663,11 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D3:D300)</f>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTBLANK(B1:B300)</f>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.70270270270270274</v>
+        <v>0.7432432432432432</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2395,93 +2395,65 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14" t="s">
+      <c r="B77" s="25"/>
+      <c r="C77" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14" t="s">
+      <c r="B79" s="25"/>
+      <c r="C79" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14" t="s">
+      <c r="B80" s="25"/>
+      <c r="C80" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14" t="s">
+      <c r="B81" s="25"/>
+      <c r="C81" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,38 +2461,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3755,7 +3714,7 @@
       <c r="B208" s="1"/>
       <c r="C208" s="4"/>
       <c r="D208" s="1" t="str">
-        <f t="shared" ref="D204:D267" si="3">IF(C208&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D208:D267" si="3">IF(C208&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6876F-9890-4CA8-BE4E-32C05D479DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B9ADF8-88B5-4502-BF82-8F9D64D41003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$278</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="317">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -525,9 +525,6 @@
     <t>  683:     response = await ApiHelper.getCausantesZonas();</t>
   </si>
   <si>
-    <t>  325:                     response = await ApiHelper.sendMail(request, widget.token);</t>
-  </si>
-  <si>
     <t>  381:     response = await ApiHelper.getUsers(widget.token);</t>
   </si>
   <si>
@@ -792,9 +789,6 @@
     <t>  136:     response = await ApiHelper.put3('/api/CausanteRecibos/FirmarRecibo/','${widget.recibo.idrecibo}', request, widget.token);</t>
   </si>
   <si>
-    <t>  337:                                   response = await ApiHelper.sendMail(request, widget.token);</t>
-  </si>
-  <si>
     <t>  567:         Response response = await ApiHelper.post(/api/ObrasPostesCajasDetalle/PostObrasPostesCajasDetalle','/api/ObrasPostesCajasDetalle/PostObrasPostesCajasDetalle',</t>
   </si>
   <si>
@@ -982,6 +976,21 @@
   </si>
   <si>
     <t>Tabla ObrasReparos tiene 199 registros: lo usan poco</t>
+  </si>
+  <si>
+    <t>lib\screens\recibos\recibos_screen.dart:</t>
+  </si>
+  <si>
+    <t>  337:     response = await ApiHelper.sendMail(request, widget.token);</t>
+  </si>
+  <si>
+    <t>lib\screens\recibos\pdf_view_screen.dart:</t>
+  </si>
+  <si>
+    <t>  325:     response = await ApiHelper.sendMail(request, widget.token);</t>
+  </si>
+  <si>
+    <t>infInsMonS23 con fecha NULL</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1279,6 +1288,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,11 +1637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A230" sqref="A230"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1639,22 +1657,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1662,15 +1680,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D300)</f>
-        <v>57</v>
+        <f>SUM(D3:D302)</f>
+        <v>41</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F2" s="1">
-        <f>COUNTBLANK(B1:B300)</f>
+        <f>COUNTBLANK(B1:B302)</f>
         <v>222</v>
       </c>
     </row>
@@ -1686,7 +1704,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.7432432432432432</v>
+        <v>0.81531531531531531</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1704,7 +1722,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1713,7 +1731,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1722,7 +1740,7 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1731,7 +1749,7 @@
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1740,7 +1758,7 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1749,7 +1767,7 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1762,10 +1780,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1774,7 +1792,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1783,7 +1801,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1792,7 +1810,7 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1809,10 +1827,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -1825,7 +1843,7 @@
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1852,7 @@
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1843,7 +1861,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1862,10 +1880,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -1878,7 +1896,7 @@
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1905,7 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1896,7 +1914,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,10 +1933,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -2010,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,7 +2037,7 @@
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2028,7 +2046,7 @@
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2037,7 +2055,7 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2046,7 +2064,7 @@
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2064,7 +2082,7 @@
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2082,7 +2100,7 @@
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,7 +2109,7 @@
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2107,7 +2125,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,7 +2170,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2161,7 +2179,7 @@
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,7 +2212,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2223,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2237,7 +2255,7 @@
         <v/>
       </c>
       <c r="E60" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2257,7 +2275,7 @@
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2288,7 +2306,7 @@
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2297,7 +2315,7 @@
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2328,7 +2346,7 @@
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2359,7 +2377,7 @@
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,7 +2395,7 @@
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2408,7 +2426,7 @@
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,7 +2462,7 @@
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2479,7 +2497,7 @@
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2510,7 +2528,7 @@
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2519,7 +2537,7 @@
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,7 +2568,7 @@
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,7 +2577,7 @@
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2568,7 +2586,7 @@
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2577,7 +2595,7 @@
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2602,7 +2620,7 @@
         <v>86</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2611,7 +2629,7 @@
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2620,7 +2638,7 @@
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2660,7 +2678,7 @@
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2669,7 +2687,7 @@
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2678,7 +2696,7 @@
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2687,7 +2705,7 @@
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2740,7 +2758,7 @@
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2749,7 +2767,7 @@
       </c>
       <c r="B112" s="25"/>
       <c r="C112" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2767,7 +2785,7 @@
       </c>
       <c r="B114" s="25"/>
       <c r="C114" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2825,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,7 +2852,7 @@
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2883,7 +2901,7 @@
         <v>15</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2892,7 +2910,7 @@
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,7 +2919,7 @@
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2923,7 +2941,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -2932,7 +2950,7 @@
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2941,7 +2959,7 @@
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2960,13 +2978,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>101</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -2996,7 +3014,7 @@
         <v>99</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3005,7 +3023,7 @@
       </c>
       <c r="B138" s="32"/>
       <c r="C138" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3036,7 +3054,7 @@
         <v>20</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3045,7 +3063,7 @@
       </c>
       <c r="B142" s="25"/>
       <c r="C142" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3054,7 +3072,7 @@
       </c>
       <c r="B143" s="24"/>
       <c r="C143" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,7 +3094,7 @@
         <v>21</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -3125,7 +3143,7 @@
       </c>
       <c r="B150" s="25"/>
       <c r="C150" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -3165,7 +3183,7 @@
         <v>23</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,7 +3232,7 @@
       </c>
       <c r="B159" s="25"/>
       <c r="C159" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -3242,10 +3260,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3263,7 +3281,7 @@
         <v>25</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3369,7 +3387,7 @@
       </c>
       <c r="B174" s="24"/>
       <c r="C174" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3418,7 +3436,7 @@
       </c>
       <c r="B179" s="24"/>
       <c r="C179" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3433,10 +3451,10 @@
         <v>183</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3458,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3467,7 +3485,7 @@
       </c>
       <c r="B184" s="25"/>
       <c r="C184" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3485,7 +3503,7 @@
       </c>
       <c r="B186" s="25"/>
       <c r="C186" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3494,7 +3512,7 @@
       </c>
       <c r="B187" s="24"/>
       <c r="C187" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,10 +3587,10 @@
         <v>35</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E194" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -3621,7 +3639,7 @@
       </c>
       <c r="B199" s="24"/>
       <c r="C199" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -3652,7 +3670,7 @@
       </c>
       <c r="B202" s="24"/>
       <c r="C202" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -3677,7 +3695,7 @@
         <v>140</v>
       </c>
       <c r="E204" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -3714,7 +3732,7 @@
       <c r="B208" s="1"/>
       <c r="C208" s="4"/>
       <c r="D208" s="1" t="str">
-        <f t="shared" ref="D208:D267" si="3">IF(C208&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D208:D269" si="3">IF(C208&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -3735,7 +3753,7 @@
       </c>
       <c r="B210" s="25"/>
       <c r="C210" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,10 +3784,10 @@
         <v>45</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -3956,7 +3974,7 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D228" s="1">
         <f t="shared" si="3"/>
@@ -3982,7 +4000,7 @@
         <v>48</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="3"/>
@@ -4034,7 +4052,7 @@
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D234" s="1">
         <f t="shared" si="3"/>
@@ -4056,15 +4074,11 @@
       <c r="A236" s="1">
         <v>238</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D236" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="C236" s="22" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -4082,15 +4096,11 @@
       <c r="A238" s="1">
         <v>240</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C238" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D238" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="C238" s="22" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -4108,167 +4118,131 @@
       <c r="A240" s="1">
         <v>242</v>
       </c>
-      <c r="B240" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D240" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B240" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>243</v>
       </c>
-      <c r="B241" s="13"/>
-      <c r="C241" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D241" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B241" s="24"/>
+      <c r="C241" s="17" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>244</v>
       </c>
-      <c r="B242" s="13"/>
-      <c r="C242" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D242" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="B242" s="3"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>245</v>
       </c>
-      <c r="B243" s="11"/>
-      <c r="C243" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D243" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B243" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>246</v>
       </c>
-      <c r="B244" s="1"/>
+      <c r="B244" s="3"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>247</v>
       </c>
-      <c r="B245" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D245" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B245" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>248</v>
       </c>
-      <c r="B246" s="13"/>
-      <c r="C246" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D246" s="1">
+      <c r="B246" s="1"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>249</v>
       </c>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D247" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B247" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>250</v>
       </c>
-      <c r="B248" s="1"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>251</v>
       </c>
-      <c r="B249" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D249" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B249" s="24"/>
+      <c r="C249" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>252</v>
       </c>
-      <c r="B250" s="11"/>
-      <c r="C250" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D250" s="1">
+      <c r="B250" s="1"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>253</v>
       </c>
-      <c r="B251" s="1"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="1" t="str">
+      <c r="B251" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D251" s="1">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>254</v>
       </c>
-      <c r="B252" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>166</v>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D252" s="1">
         <f t="shared" si="3"/>
@@ -4279,35 +4253,35 @@
       <c r="A253" s="1">
         <v>255</v>
       </c>
-      <c r="B253" s="11"/>
-      <c r="C253" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D253" s="1">
+      <c r="B253" s="1"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>256</v>
       </c>
-      <c r="B254" s="1"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="1" t="str">
+      <c r="B254" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D254" s="1">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>257</v>
       </c>
-      <c r="B255" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>167</v>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D255" s="1">
         <f t="shared" si="3"/>
@@ -4318,94 +4292,94 @@
       <c r="A256" s="1">
         <v>258</v>
       </c>
-      <c r="B256" s="3"/>
+      <c r="B256" s="1"/>
       <c r="C256" s="4"/>
       <c r="D256" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>259</v>
       </c>
-      <c r="B257" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>168</v>
+      <c r="B257" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D257" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>260</v>
       </c>
-      <c r="B258" s="11"/>
-      <c r="C258" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D258" s="1">
+      <c r="B258" s="3"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>261</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D259" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
-        <v>261</v>
-      </c>
-      <c r="B259" s="1"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>262</v>
       </c>
-      <c r="B260" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>228</v>
+      <c r="B260" s="11"/>
+      <c r="C260" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="D260" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>263</v>
       </c>
-      <c r="B261" s="3"/>
+      <c r="B261" s="1"/>
       <c r="C261" s="4"/>
       <c r="D261" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>264</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>229</v>
+        <v>57</v>
+      </c>
+      <c r="C262" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="D262" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>265</v>
       </c>
@@ -4416,22 +4390,22 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>266</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="C264" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="D264" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>267</v>
       </c>
@@ -4442,150 +4416,154 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>268</v>
       </c>
-      <c r="B266" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D266" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B266" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F266" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G266" s="34"/>
+      <c r="H266" s="34"/>
+      <c r="I266" s="34"/>
+      <c r="J266" s="34"/>
+      <c r="K266" s="34"/>
+      <c r="L266" s="34"/>
+      <c r="M266" s="34"/>
+      <c r="N266" s="34"/>
+      <c r="O266" s="34"/>
+      <c r="P266" s="34"/>
+      <c r="Q266" s="34"/>
+      <c r="R266" s="34"/>
+      <c r="S266" s="34"/>
+      <c r="T266" s="34"/>
+      <c r="U266" s="34"/>
+      <c r="V266" s="34"/>
+      <c r="W266" s="34"/>
+      <c r="X266" s="34"/>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>269</v>
       </c>
-      <c r="B267" s="13"/>
-      <c r="C267" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D267" s="1">
+      <c r="B267" s="3"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>270</v>
       </c>
-      <c r="B268" s="13"/>
-      <c r="C268" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D268" s="1">
-        <f t="shared" ref="D268:D300" si="4">IF(C268&lt;&gt;"",1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B268" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E268" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>271</v>
       </c>
-      <c r="B269" s="13"/>
-      <c r="C269" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D269" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="25"/>
+      <c r="C269" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>272</v>
       </c>
-      <c r="B270" s="11"/>
-      <c r="C270" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D270" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B270" s="25"/>
+      <c r="C270" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>273</v>
       </c>
-      <c r="B271" s="1"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B271" s="25"/>
+      <c r="C271" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>274</v>
       </c>
-      <c r="B272" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D272" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="B272" s="24"/>
+      <c r="C272" s="17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>275</v>
       </c>
-      <c r="B273" s="11"/>
-      <c r="C273" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D273" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="B273" s="1"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="1" t="str">
+        <f t="shared" ref="D270:D302" si="4">IF(C273&lt;&gt;"",1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>276</v>
       </c>
-      <c r="B274" s="1"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B274" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>277</v>
       </c>
-      <c r="B275" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C275" s="22" t="s">
-        <v>231</v>
+      <c r="B275" s="11"/>
+      <c r="C275" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D275" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>278</v>
       </c>
-      <c r="B276" s="3"/>
+      <c r="B276" s="1"/>
       <c r="C276" s="4"/>
+      <c r="D276" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>279</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4599,29 +4577,29 @@
       <c r="A279" s="1">
         <v>281</v>
       </c>
-      <c r="B279" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C279" s="19" t="s">
-        <v>232</v>
+      <c r="B279" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>282</v>
       </c>
-      <c r="B280" s="25"/>
-      <c r="C280" s="18" t="s">
-        <v>233</v>
-      </c>
+      <c r="B280" s="3"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>283</v>
       </c>
-      <c r="B281" s="25"/>
-      <c r="C281" s="18" t="s">
-        <v>253</v>
+      <c r="B281" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -4630,76 +4608,68 @@
       </c>
       <c r="B282" s="25"/>
       <c r="C282" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>285</v>
       </c>
-      <c r="B283" s="24"/>
-      <c r="C283" s="17" t="s">
-        <v>245</v>
+      <c r="B283" s="25"/>
+      <c r="C283" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>286</v>
       </c>
-      <c r="B284" s="1"/>
-      <c r="C284" s="4"/>
+      <c r="B284" s="25"/>
+      <c r="C284" s="18" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>287</v>
       </c>
-      <c r="B285" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C285" s="19" t="s">
-        <v>177</v>
+      <c r="B285" s="24"/>
+      <c r="C285" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>288</v>
       </c>
-      <c r="B286" s="24"/>
-      <c r="C286" s="17" t="s">
-        <v>244</v>
-      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>289</v>
       </c>
-      <c r="B287" s="1"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B287" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C287" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>290</v>
       </c>
-      <c r="B288" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D288" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="B288" s="24"/>
+      <c r="C288" s="17" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>291</v>
       </c>
-      <c r="B289" s="3"/>
+      <c r="B289" s="1"/>
       <c r="C289" s="4"/>
       <c r="D289" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4710,11 +4680,11 @@
       <c r="A290" s="1">
         <v>292</v>
       </c>
-      <c r="B290" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>235</v>
+      <c r="B290" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="D290" s="1">
         <f t="shared" si="4"/>
@@ -4725,22 +4695,22 @@
       <c r="A291" s="1">
         <v>293</v>
       </c>
-      <c r="B291" s="13"/>
-      <c r="C291" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D291" s="1">
+      <c r="B291" s="3"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>294</v>
       </c>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12" t="s">
-        <v>279</v>
+      <c r="B292" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="D292" s="1">
         <f t="shared" si="4"/>
@@ -4751,22 +4721,22 @@
       <c r="A293" s="1">
         <v>295</v>
       </c>
-      <c r="B293" s="1"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="1" t="str">
+      <c r="B293" s="13"/>
+      <c r="C293" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D293" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>296</v>
       </c>
-      <c r="B294" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>243</v>
+      <c r="B294" s="11"/>
+      <c r="C294" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="D294" s="1">
         <f t="shared" si="4"/>
@@ -4777,7 +4747,7 @@
       <c r="A295" s="1">
         <v>297</v>
       </c>
-      <c r="B295" s="3"/>
+      <c r="B295" s="1"/>
       <c r="C295" s="4"/>
       <c r="D295" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4788,11 +4758,11 @@
       <c r="A296" s="1">
         <v>298</v>
       </c>
-      <c r="B296" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C296" s="10" t="s">
-        <v>179</v>
+      <c r="B296" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D296" s="1">
         <f t="shared" si="4"/>
@@ -4803,22 +4773,22 @@
       <c r="A297" s="1">
         <v>299</v>
       </c>
-      <c r="B297" s="13"/>
-      <c r="C297" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D297" s="1">
+      <c r="B297" s="3"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>300</v>
       </c>
-      <c r="B298" s="11"/>
-      <c r="C298" s="12" t="s">
-        <v>181</v>
+      <c r="B298" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D298" s="1">
         <f t="shared" si="4"/>
@@ -4829,30 +4799,56 @@
       <c r="A299" s="1">
         <v>301</v>
       </c>
-      <c r="B299" s="1"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="1" t="str">
+      <c r="B299" s="13"/>
+      <c r="C299" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D299" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>302</v>
       </c>
-      <c r="B300" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C300" s="8" t="s">
-        <v>237</v>
+      <c r="B300" s="11"/>
+      <c r="C300" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="D300" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>303</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>304</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D302" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H276" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
+  <autoFilter ref="A1:H278" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4873,7 +4869,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B9ADF8-88B5-4502-BF82-8F9D64D41003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445CF59D-8952-41A2-89E4-C63E9BFC10E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="318">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -991,6 +991,9 @@
   </si>
   <si>
     <t>infInsMonS23 con fecha NULL</t>
+  </si>
+  <si>
+    <t>Tabla ObrasNuevoSuministros tiene 30 registros: no lo usan</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,9 +1295,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,8 +1640,8 @@
   <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B292" sqref="B292:B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1681,11 +1681,11 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D3:D302)</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTBLANK(B1:B302)</f>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E3" s="27">
         <f>+E2/F2</f>
-        <v>0.81531531531531531</v>
+        <v>0.85135135135135132</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
       <c r="B208" s="1"/>
       <c r="C208" s="4"/>
       <c r="D208" s="1" t="str">
-        <f t="shared" ref="D208:D269" si="3">IF(C208&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D208:D267" si="3">IF(C208&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -4368,15 +4368,11 @@
       <c r="A262" s="1">
         <v>264</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C262" s="29" t="s">
+      <c r="C262" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="D262" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
@@ -4394,15 +4390,11 @@
       <c r="A264" s="1">
         <v>266</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C264" s="29" t="s">
+      <c r="C264" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="D264" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
@@ -4416,7 +4408,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>268</v>
       </c>
@@ -4426,7 +4418,7 @@
       <c r="C266" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="F266" s="35" t="s">
+      <c r="E266" s="35" t="s">
         <v>316</v>
       </c>
       <c r="G266" s="34"/>
@@ -4459,7 +4451,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>270</v>
       </c>
@@ -4516,7 +4508,7 @@
       <c r="B273" s="1"/>
       <c r="C273" s="4"/>
       <c r="D273" s="1" t="str">
-        <f t="shared" ref="D270:D302" si="4">IF(C273&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D273:D302" si="4">IF(C273&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -4524,7 +4516,7 @@
       <c r="A274" s="1">
         <v>276</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C274" s="19" t="s">
@@ -4535,13 +4527,9 @@
       <c r="A275" s="1">
         <v>277</v>
       </c>
-      <c r="B275" s="11"/>
-      <c r="C275" s="36" t="s">
+      <c r="B275" s="24"/>
+      <c r="C275" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="D275" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -4665,7 +4653,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>291</v>
       </c>
@@ -4676,22 +4664,18 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>292</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C290" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D290" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>293</v>
       </c>
@@ -4702,74 +4686,57 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>294</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C292" s="10" t="s">
+      <c r="C292" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D292" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E292" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>295</v>
       </c>
-      <c r="B293" s="13"/>
-      <c r="C293" s="14" t="s">
+      <c r="B293" s="25"/>
+      <c r="C293" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D293" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>296</v>
       </c>
-      <c r="B294" s="11"/>
-      <c r="C294" s="12" t="s">
+      <c r="B294" s="24"/>
+      <c r="C294" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D294" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>297</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>298</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D296" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>299</v>
       </c>
@@ -4780,7 +4747,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>300</v>
       </c>
@@ -4795,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>301</v>
       </c>
@@ -4808,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>302</v>
       </c>
@@ -4821,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>303</v>
       </c>
@@ -4832,7 +4799,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>304</v>
       </c>

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445CF59D-8952-41A2-89E4-C63E9BFC10E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603AC54-974F-4228-B78E-A7B630D9E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$271</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -483,24 +483,6 @@
     <t>  587:     Response response = await ApiHelper.getObrasReparos(widget.obra.nroObra);</t>
   </si>
   <si>
-    <t>  296:           await ApiHelper.post('/api/Causantes/PostPresentismos', request);</t>
-  </si>
-  <si>
-    <t>  565:     response = await ApiHelper.getEmpleados(widget.user.idUsuario);</t>
-  </si>
-  <si>
-    <t>  633:     response = await ApiHelper.getCausantesEstados();</t>
-  </si>
-  <si>
-    <t>  682:     response = await ApiHelper.getCausantesZonas();</t>
-  </si>
-  <si>
-    <t>  731:     response = await ApiHelper.getCausantesActividades();</t>
-  </si>
-  <si>
-    <t>  782:     response = await ApiHelper.getPresentismosHoy(</t>
-  </si>
-  <si>
     <t>  294:           await ApiHelper.post('/api/Causantes/PostPresentismos', request);</t>
   </si>
   <si>
@@ -750,9 +732,6 @@
     <t>  774:           await ApiHelper.post(/api/ObrasNuevoSuministrosDet/PostObrasNuevoSuministrosDet',</t>
   </si>
   <si>
-    <t>  831:     Response response = await ApiHelper.put(/api/ObrasReparos/', widget.obra.nroregistro.toString(), request);</t>
-  </si>
-  <si>
     <t>  3186:       response = await ApiHelper.put('/api/VehiculosCheckLists/',widget.checkList.idCheckList.toString(), request);</t>
   </si>
   <si>
@@ -994,6 +973,12 @@
   </si>
   <si>
     <t>Tabla ObrasNuevoSuministros tiene 30 registros: no lo usan</t>
+  </si>
+  <si>
+    <t>  841:     Response response = await ApiHelper.put(/api/ObrasReparos/', widget.obra.nroregistro.toString(), request);</t>
+  </si>
+  <si>
+    <t>Tabla ObrasPostesCajasAPPtiene NO TIENE registros: NO LO USAN</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1238,10 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,6 +1278,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1637,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:X302"/>
+  <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B292" sqref="B292:B294"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D223" sqref="D223:D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1657,22 +1639,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1680,39 +1662,39 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D302)</f>
-        <v>33</v>
+        <f>SUM(D3:D295)</f>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1">
-        <f>COUNTBLANK(B1:B302)</f>
-        <v>222</v>
+        <f>COUNTBLANK(B1:B295)</f>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <f>+E2/F2</f>
-        <v>0.85135135135135132</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1720,54 +1702,54 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="18" t="s">
-        <v>269</v>
+      <c r="B5" s="23"/>
+      <c r="C5" s="16" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="18" t="s">
-        <v>270</v>
+      <c r="B6" s="23"/>
+      <c r="C6" s="16" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="18" t="s">
-        <v>271</v>
+      <c r="B7" s="23"/>
+      <c r="C7" s="16" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
-        <v>272</v>
+      <c r="B8" s="23"/>
+      <c r="C8" s="16" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="18" t="s">
-        <v>273</v>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="17" t="s">
-        <v>274</v>
+      <c r="B10" s="22"/>
+      <c r="C10" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,38 +1761,38 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>279</v>
+      <c r="B12" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="18" t="s">
-        <v>280</v>
+      <c r="B13" s="23"/>
+      <c r="C13" s="16" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="21" t="s">
-        <v>281</v>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="17" t="s">
-        <v>282</v>
+      <c r="B15" s="22"/>
+      <c r="C15" s="15" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,10 +1809,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -1841,27 +1823,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18" t="s">
-        <v>286</v>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18" t="s">
-        <v>287</v>
+      <c r="B19" s="18"/>
+      <c r="C19" s="16" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
-        <v>288</v>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1880,10 +1862,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -1894,27 +1876,27 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="18" t="s">
-        <v>284</v>
+      <c r="B23" s="18"/>
+      <c r="C23" s="16" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="18" t="s">
-        <v>285</v>
+      <c r="B24" s="18"/>
+      <c r="C24" s="16" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
-        <v>283</v>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1933,10 +1915,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -1956,10 +1938,10 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1967,8 +1949,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="16" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1976,8 +1958,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="16" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1985,8 +1967,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="16" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1994,8 +1976,8 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="15" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2008,10 +1990,10 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2024,55 +2006,55 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>216</v>
+      <c r="C37" s="17" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="18" t="s">
-        <v>241</v>
+      <c r="B38" s="23"/>
+      <c r="C38" s="16" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="18" t="s">
-        <v>217</v>
+      <c r="B39" s="23"/>
+      <c r="C39" s="16" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="18" t="s">
-        <v>260</v>
+      <c r="B40" s="23"/>
+      <c r="C40" s="16" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="18" t="s">
-        <v>261</v>
+      <c r="B41" s="23"/>
+      <c r="C41" s="16" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="18" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2080,17 +2062,17 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="18" t="s">
-        <v>218</v>
+      <c r="B43" s="23"/>
+      <c r="C43" s="16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="16" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2098,18 +2080,18 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="18" t="s">
-        <v>219</v>
+      <c r="B45" s="23"/>
+      <c r="C45" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="17" t="s">
-        <v>220</v>
+      <c r="B46" s="22"/>
+      <c r="C46" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2121,19 +2103,19 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>259</v>
+      <c r="C48" s="17" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2141,8 +2123,8 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="16" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2150,8 +2132,8 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="17" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2166,20 +2148,20 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>289</v>
+      <c r="C53" s="17" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="17" t="s">
-        <v>290</v>
+      <c r="B54" s="22"/>
+      <c r="C54" s="15" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2210,9 +2192,9 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17" t="s">
-        <v>262</v>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,18 +2212,18 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>294</v>
+      <c r="E59" s="29" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,18 +2236,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E60" s="31" t="s">
-        <v>295</v>
+      <c r="E60" s="29" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2273,9 +2255,9 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="17" t="s">
-        <v>263</v>
+      <c r="B62" s="28"/>
+      <c r="C62" s="15" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2293,10 +2275,10 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2304,18 +2286,18 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="18" t="s">
-        <v>296</v>
+      <c r="B65" s="30"/>
+      <c r="C65" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="17" t="s">
-        <v>184</v>
+      <c r="B66" s="22"/>
+      <c r="C66" s="15" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2333,10 +2315,10 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2344,9 +2326,9 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="17" t="s">
-        <v>264</v>
+      <c r="B69" s="28"/>
+      <c r="C69" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2364,10 +2346,10 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2375,17 +2357,17 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="18" t="s">
-        <v>185</v>
+      <c r="B72" s="23"/>
+      <c r="C72" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="18" t="s">
+      <c r="B73" s="23"/>
+      <c r="C73" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2393,9 +2375,9 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="17" t="s">
-        <v>297</v>
+      <c r="B74" s="22"/>
+      <c r="C74" s="15" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2413,10 +2395,10 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2424,17 +2406,17 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="18" t="s">
-        <v>186</v>
+      <c r="B77" s="23"/>
+      <c r="C77" s="16" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="18" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2442,8 +2424,8 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="18" t="s">
+      <c r="B79" s="23"/>
+      <c r="C79" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2451,8 +2433,8 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="18" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2460,17 +2442,17 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="18" t="s">
-        <v>187</v>
+      <c r="B81" s="23"/>
+      <c r="C81" s="16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="17" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2484,10 +2466,10 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="17" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2495,9 +2477,9 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="17" t="s">
-        <v>188</v>
+      <c r="B85" s="22"/>
+      <c r="C85" s="15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2515,10 +2497,10 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="17" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2526,18 +2508,18 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="18" t="s">
-        <v>189</v>
+      <c r="B88" s="23"/>
+      <c r="C88" s="16" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="17" t="s">
-        <v>190</v>
+      <c r="B89" s="22"/>
+      <c r="C89" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2555,10 +2537,10 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2566,36 +2548,36 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="18" t="s">
-        <v>191</v>
+      <c r="B92" s="23"/>
+      <c r="C92" s="16" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="18" t="s">
-        <v>192</v>
+      <c r="B93" s="23"/>
+      <c r="C93" s="16" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="18" t="s">
-        <v>193</v>
+      <c r="B94" s="23"/>
+      <c r="C94" s="16" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="17" t="s">
-        <v>194</v>
+      <c r="B95" s="22"/>
+      <c r="C95" s="15" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2613,40 +2595,40 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E97" s="33" t="s">
-        <v>307</v>
+      <c r="E97" s="31" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="18" t="s">
-        <v>195</v>
+      <c r="B98" s="23"/>
+      <c r="C98" s="16" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="18" t="s">
-        <v>196</v>
+      <c r="B99" s="23"/>
+      <c r="C99" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="17" t="s">
+      <c r="B100" s="22"/>
+      <c r="C100" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2665,10 +2647,10 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2676,36 +2658,36 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="18" t="s">
-        <v>197</v>
+      <c r="B103" s="23"/>
+      <c r="C103" s="16" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="25"/>
-      <c r="C104" s="18" t="s">
-        <v>198</v>
+      <c r="B104" s="23"/>
+      <c r="C104" s="16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="18" t="s">
-        <v>199</v>
+      <c r="B105" s="23"/>
+      <c r="C105" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="17" t="s">
-        <v>252</v>
+      <c r="B106" s="22"/>
+      <c r="C106" s="15" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2723,10 +2705,10 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="20" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2745,10 +2727,10 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2756,26 +2738,26 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="18" t="s">
-        <v>298</v>
+      <c r="B111" s="30"/>
+      <c r="C111" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="18" t="s">
-        <v>200</v>
+      <c r="B112" s="23"/>
+      <c r="C112" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="18" t="s">
+      <c r="B113" s="23"/>
+      <c r="C113" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2783,17 +2765,17 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="18" t="s">
-        <v>299</v>
+      <c r="B114" s="23"/>
+      <c r="C114" s="16" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="18" t="s">
+      <c r="B115" s="23"/>
+      <c r="C115" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2801,8 +2783,8 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="25"/>
-      <c r="C116" s="18" t="s">
+      <c r="B116" s="23"/>
+      <c r="C116" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2810,8 +2792,8 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="25"/>
-      <c r="C117" s="18" t="s">
+      <c r="B117" s="23"/>
+      <c r="C117" s="16" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2819,8 +2801,8 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="17" t="s">
+      <c r="B118" s="22"/>
+      <c r="C118" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2839,28 +2821,28 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C120" s="19" t="s">
-        <v>201</v>
+      <c r="C120" s="17" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="25"/>
-      <c r="C121" s="18" t="s">
-        <v>237</v>
+      <c r="B121" s="23"/>
+      <c r="C121" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="25"/>
-      <c r="C122" s="18" t="s">
+      <c r="B122" s="23"/>
+      <c r="C122" s="16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2868,8 +2850,8 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="18" t="s">
+      <c r="B123" s="23"/>
+      <c r="C123" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2877,8 +2859,8 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="17" t="s">
+      <c r="B124" s="22"/>
+      <c r="C124" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2897,29 +2879,29 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B126" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="19" t="s">
-        <v>202</v>
+      <c r="C126" s="17" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="18" t="s">
-        <v>253</v>
+      <c r="B127" s="23"/>
+      <c r="C127" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="17" t="s">
-        <v>254</v>
+      <c r="B128" s="22"/>
+      <c r="C128" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2937,29 +2919,29 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>255</v>
+      <c r="C130" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="25"/>
-      <c r="C131" s="18" t="s">
-        <v>256</v>
+      <c r="B131" s="23"/>
+      <c r="C131" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="17" t="s">
-        <v>203</v>
+      <c r="B132" s="22"/>
+      <c r="C132" s="15" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2977,22 +2959,22 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" s="19" t="s">
+      <c r="B134" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E134" s="33" t="s">
-        <v>303</v>
+      <c r="E134" s="31" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="17" t="s">
+      <c r="B135" s="22"/>
+      <c r="C135" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3007,31 +2989,31 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E137" s="31" t="s">
-        <v>302</v>
+      <c r="E137" s="29" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="32"/>
-      <c r="C138" s="18" t="s">
-        <v>301</v>
+      <c r="B138" s="30"/>
+      <c r="C138" s="16" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="17" t="s">
+      <c r="B139" s="22"/>
+      <c r="C139" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3050,29 +3032,29 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>204</v>
+      <c r="C141" s="17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="18" t="s">
-        <v>205</v>
+      <c r="B142" s="23"/>
+      <c r="C142" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="17" t="s">
-        <v>206</v>
+      <c r="B143" s="22"/>
+      <c r="C143" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3090,19 +3072,19 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="19" t="s">
-        <v>207</v>
+      <c r="C145" s="17" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="24"/>
-      <c r="C146" s="17" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3121,10 +3103,10 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C148" s="17" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3132,8 +3114,8 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="25"/>
-      <c r="C149" s="18" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3141,17 +3123,17 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="25"/>
-      <c r="C150" s="18" t="s">
-        <v>238</v>
+      <c r="B150" s="23"/>
+      <c r="C150" s="16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="18" t="s">
+      <c r="B151" s="23"/>
+      <c r="C151" s="16" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3159,8 +3141,8 @@
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="24"/>
-      <c r="C152" s="17" t="s">
+      <c r="B152" s="22"/>
+      <c r="C152" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3179,16 +3161,16 @@
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C154" s="22" t="s">
-        <v>240</v>
+      <c r="C154" s="20" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="4"/>
@@ -3199,54 +3181,54 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>156</v>
-      </c>
-      <c r="B156" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C156" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>157</v>
-      </c>
-      <c r="B157" s="25"/>
-      <c r="C157" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="23"/>
+      <c r="C157" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>158</v>
-      </c>
-      <c r="B158" s="25"/>
-      <c r="C158" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="23"/>
+      <c r="C158" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>159</v>
-      </c>
-      <c r="B159" s="25"/>
-      <c r="C159" s="18" t="s">
-        <v>239</v>
+        <v>158</v>
+      </c>
+      <c r="B159" s="23"/>
+      <c r="C159" s="16" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>160</v>
-      </c>
-      <c r="B160" s="24"/>
-      <c r="C160" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="22"/>
+      <c r="C160" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="4"/>
@@ -3257,45 +3239,45 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>163</v>
-      </c>
-      <c r="B162" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>309</v>
+        <v>161</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="4"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>165</v>
-      </c>
-      <c r="B164" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C164" s="19" t="s">
-        <v>208</v>
+      <c r="C164" s="17" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>166</v>
-      </c>
-      <c r="B165" s="24"/>
-      <c r="C165" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="22"/>
+      <c r="C165" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="4"/>
@@ -3306,18 +3288,18 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>168</v>
-      </c>
-      <c r="B167" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -3328,18 +3310,18 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>170</v>
-      </c>
-      <c r="B169" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C169" s="22" t="s">
+      <c r="C169" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -3350,18 +3332,18 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>172</v>
-      </c>
-      <c r="B171" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
@@ -3372,45 +3354,45 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>174</v>
-      </c>
-      <c r="B173" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>175</v>
-      </c>
-      <c r="B174" s="24"/>
-      <c r="C174" s="17" t="s">
-        <v>209</v>
+        <v>173</v>
+      </c>
+      <c r="B174" s="22"/>
+      <c r="C174" s="15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>177</v>
-      </c>
-      <c r="B176" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
@@ -3421,45 +3403,45 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>179</v>
-      </c>
-      <c r="B178" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>181</v>
-      </c>
-      <c r="B179" s="24"/>
-      <c r="C179" s="17" t="s">
-        <v>210</v>
+        <v>178</v>
+      </c>
+      <c r="B179" s="22"/>
+      <c r="C179" s="15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>183</v>
-      </c>
-      <c r="B181" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>306</v>
+        <v>180</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="4"/>
@@ -3470,54 +3452,54 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>185</v>
-      </c>
-      <c r="B183" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C183" s="19" t="s">
-        <v>211</v>
+      <c r="C183" s="17" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>186</v>
-      </c>
-      <c r="B184" s="25"/>
-      <c r="C184" s="18" t="s">
-        <v>257</v>
+        <v>183</v>
+      </c>
+      <c r="B184" s="23"/>
+      <c r="C184" s="16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>187</v>
-      </c>
-      <c r="B185" s="25"/>
-      <c r="C185" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="23"/>
+      <c r="C185" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>188</v>
-      </c>
-      <c r="B186" s="25"/>
-      <c r="C186" s="18" t="s">
-        <v>258</v>
+        <v>185</v>
+      </c>
+      <c r="B186" s="23"/>
+      <c r="C186" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>189</v>
-      </c>
-      <c r="B187" s="24"/>
-      <c r="C187" s="17" t="s">
-        <v>212</v>
+        <v>186</v>
+      </c>
+      <c r="B187" s="22"/>
+      <c r="C187" s="15" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="4"/>
@@ -3528,27 +3510,27 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>191</v>
-      </c>
-      <c r="B189" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C189" s="19" t="s">
+      <c r="C189" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>192</v>
-      </c>
-      <c r="B190" s="24"/>
-      <c r="C190" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="22"/>
+      <c r="C190" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="4"/>
@@ -3559,18 +3541,18 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>194</v>
-      </c>
-      <c r="B192" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C192" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="4"/>
@@ -3581,30 +3563,30 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>196</v>
-      </c>
-      <c r="B194" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C194" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E194" s="33" t="s">
-        <v>304</v>
+      <c r="C194" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>197</v>
-      </c>
-      <c r="B195" s="24"/>
-      <c r="C195" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="22"/>
+      <c r="C195" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="4"/>
@@ -3615,36 +3597,36 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>199</v>
-      </c>
-      <c r="B197" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C197" s="19" t="s">
+      <c r="C197" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>200</v>
-      </c>
-      <c r="B198" s="25"/>
-      <c r="C198" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="23"/>
+      <c r="C198" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>201</v>
-      </c>
-      <c r="B199" s="24"/>
-      <c r="C199" s="17" t="s">
-        <v>214</v>
+        <v>198</v>
+      </c>
+      <c r="B199" s="22"/>
+      <c r="C199" s="15" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="4"/>
@@ -3655,27 +3637,27 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>203</v>
-      </c>
-      <c r="B201" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>204</v>
-      </c>
-      <c r="B202" s="24"/>
-      <c r="C202" s="17" t="s">
-        <v>215</v>
+        <v>201</v>
+      </c>
+      <c r="B202" s="22"/>
+      <c r="C202" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="4"/>
@@ -3686,88 +3668,88 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>206</v>
-      </c>
-      <c r="B204" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C204" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E204" s="33" t="s">
-        <v>310</v>
+      <c r="E204" s="31" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>207</v>
-      </c>
-      <c r="B205" s="25"/>
-      <c r="C205" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="23"/>
+      <c r="C205" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>208</v>
-      </c>
-      <c r="B206" s="25"/>
-      <c r="C206" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="23"/>
+      <c r="C206" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>209</v>
-      </c>
-      <c r="B207" s="24"/>
-      <c r="C207" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="22"/>
+      <c r="C207" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="4"/>
       <c r="D208" s="1" t="str">
-        <f t="shared" ref="D208:D267" si="3">IF(C208&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D208:D260" si="3">IF(C208&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>211</v>
-      </c>
-      <c r="B209" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C209" s="19" t="s">
+      <c r="C209" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>212</v>
-      </c>
-      <c r="B210" s="25"/>
-      <c r="C210" s="18" t="s">
-        <v>221</v>
+        <v>209</v>
+      </c>
+      <c r="B210" s="23"/>
+      <c r="C210" s="16" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>213</v>
-      </c>
-      <c r="B211" s="24"/>
-      <c r="C211" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="22"/>
+      <c r="C211" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="4"/>
@@ -3778,30 +3760,30 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>215</v>
-      </c>
-      <c r="B213" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C213" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E213" s="33" t="s">
-        <v>311</v>
+      <c r="C213" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>216</v>
-      </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="22"/>
+      <c r="C214" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="4"/>
@@ -3812,87 +3794,63 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>218</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C216" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="D216" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>219</v>
-      </c>
-      <c r="B217" s="13"/>
-      <c r="C217" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="23"/>
+      <c r="C217" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="D217" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>220</v>
-      </c>
-      <c r="B218" s="13"/>
-      <c r="C218" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="23"/>
+      <c r="C218" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="D218" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>221</v>
-      </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="23"/>
+      <c r="C219" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="D219" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>222</v>
-      </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="23"/>
+      <c r="C220" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="D220" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>223</v>
-      </c>
-      <c r="B221" s="11"/>
-      <c r="C221" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D221" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="B221" s="22"/>
+      <c r="C221" s="15" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="4"/>
@@ -3903,211 +3861,187 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>225</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D223" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>226</v>
-      </c>
-      <c r="B224" s="13"/>
-      <c r="C224" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="23"/>
+      <c r="C224" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D224" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>227</v>
-      </c>
-      <c r="B225" s="13"/>
-      <c r="C225" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="23"/>
+      <c r="C225" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D225" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>228</v>
-      </c>
-      <c r="B226" s="13"/>
-      <c r="C226" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="23"/>
+      <c r="C226" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D226" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>229</v>
-      </c>
-      <c r="B227" s="13"/>
-      <c r="C227" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="22"/>
+      <c r="C227" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D227" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>230</v>
-      </c>
-      <c r="B228" s="11"/>
-      <c r="C228" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>231</v>
-      </c>
-      <c r="B229" s="1"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>232</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>233</v>
-      </c>
-      <c r="B231" s="13"/>
-      <c r="C231" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D231" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="B231" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>234</v>
-      </c>
-      <c r="B232" s="13"/>
-      <c r="C232" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>235</v>
-      </c>
-      <c r="B233" s="13"/>
-      <c r="C233" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D233" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="B233" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>236</v>
-      </c>
-      <c r="B234" s="11"/>
-      <c r="C234" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D234" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>233</v>
+      </c>
+      <c r="B234" s="22"/>
+      <c r="C234" s="15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>237</v>
-      </c>
-      <c r="B235" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="3"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>238</v>
-      </c>
-      <c r="B236" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C236" s="22" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="B236" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>240</v>
-      </c>
-      <c r="B238" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C238" s="22" t="s">
-        <v>224</v>
+        <v>237</v>
+      </c>
+      <c r="B238" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C238" s="20" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>241</v>
-      </c>
-      <c r="B239" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="1"/>
       <c r="C239" s="4"/>
       <c r="D239" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4116,183 +4050,178 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="23"/>
+      <c r="C241" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="22"/>
+      <c r="C242" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B240" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="C240" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+      <c r="B243" s="1"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B241" s="24"/>
-      <c r="C241" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+      <c r="B244" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B242" s="3"/>
-      <c r="C242" s="4"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+      <c r="B245" s="22"/>
+      <c r="C245" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
         <v>245</v>
-      </c>
-      <c r="B243" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C243" s="22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>246</v>
-      </c>
-      <c r="B244" s="3"/>
-      <c r="C244" s="4"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>247</v>
-      </c>
-      <c r="B245" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C245" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>248</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="1" t="str">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="22"/>
+      <c r="C248" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="4"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E250" s="31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>249</v>
-      </c>
-      <c r="B247" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C247" s="19" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="10" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>250</v>
-      </c>
-      <c r="B248" s="25"/>
-      <c r="C248" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>251</v>
-      </c>
-      <c r="B249" s="24"/>
-      <c r="C249" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
-        <v>252</v>
-      </c>
-      <c r="B250" s="1"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
-        <v>253</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D251" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
-        <v>254</v>
-      </c>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="D252" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>255</v>
-      </c>
-      <c r="B253" s="1"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
-        <v>256</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D253" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>257</v>
-      </c>
-      <c r="B255" s="11"/>
-      <c r="C255" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D255" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="B255" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C255" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>258</v>
-      </c>
-      <c r="B256" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="B256" s="3"/>
       <c r="C256" s="4"/>
       <c r="D256" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4301,22 +4230,18 @@
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>259</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D257" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="B257" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="4"/>
@@ -4325,497 +4250,398 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>261</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D259" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B259" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G259" s="32"/>
+      <c r="H259" s="32"/>
+      <c r="I259" s="32"/>
+      <c r="J259" s="32"/>
+      <c r="K259" s="32"/>
+      <c r="L259" s="32"/>
+      <c r="M259" s="32"/>
+      <c r="N259" s="32"/>
+      <c r="O259" s="32"/>
+      <c r="P259" s="32"/>
+      <c r="Q259" s="32"/>
+      <c r="R259" s="32"/>
+      <c r="S259" s="32"/>
+      <c r="T259" s="32"/>
+      <c r="U259" s="32"/>
+      <c r="V259" s="32"/>
+      <c r="W259" s="32"/>
+      <c r="X259" s="32"/>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>262</v>
-      </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>263</v>
-      </c>
-      <c r="B261" s="1"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>260</v>
+      </c>
+      <c r="B261" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E261" s="31" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>264</v>
-      </c>
-      <c r="B262" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C262" s="22" t="s">
-        <v>227</v>
+        <v>261</v>
+      </c>
+      <c r="B262" s="23"/>
+      <c r="C262" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>265</v>
-      </c>
-      <c r="B263" s="3"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>262</v>
+      </c>
+      <c r="B263" s="23"/>
+      <c r="C263" s="16" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>266</v>
-      </c>
-      <c r="B264" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C264" s="22" t="s">
-        <v>228</v>
+        <v>263</v>
+      </c>
+      <c r="B264" s="23"/>
+      <c r="C264" s="16" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>267</v>
-      </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="B265" s="22"/>
+      <c r="C265" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>268</v>
-      </c>
-      <c r="B266" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C266" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E266" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="G266" s="34"/>
-      <c r="H266" s="34"/>
-      <c r="I266" s="34"/>
-      <c r="J266" s="34"/>
-      <c r="K266" s="34"/>
-      <c r="L266" s="34"/>
-      <c r="M266" s="34"/>
-      <c r="N266" s="34"/>
-      <c r="O266" s="34"/>
-      <c r="P266" s="34"/>
-      <c r="Q266" s="34"/>
-      <c r="R266" s="34"/>
-      <c r="S266" s="34"/>
-      <c r="T266" s="34"/>
-      <c r="U266" s="34"/>
-      <c r="V266" s="34"/>
-      <c r="W266" s="34"/>
-      <c r="X266" s="34"/>
+        <v>265</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="1" t="str">
+        <f t="shared" ref="D266:D294" si="4">IF(C266&lt;&gt;"",1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>269</v>
-      </c>
-      <c r="B267" s="3"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="B267" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C267" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>270</v>
-      </c>
-      <c r="B268" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C268" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E268" s="33" t="s">
-        <v>310</v>
+        <v>267</v>
+      </c>
+      <c r="B268" s="22"/>
+      <c r="C268" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>271</v>
-      </c>
-      <c r="B269" s="25"/>
-      <c r="C269" s="18" t="s">
-        <v>171</v>
+        <v>268</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>272</v>
-      </c>
-      <c r="B270" s="25"/>
-      <c r="C270" s="18" t="s">
-        <v>172</v>
+        <v>269</v>
+      </c>
+      <c r="B270" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C270" s="20" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>273</v>
-      </c>
-      <c r="B271" s="25"/>
-      <c r="C271" s="18" t="s">
-        <v>173</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B271" s="3"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C272" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="3"/>
+      <c r="C273" s="4"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C274" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B272" s="24"/>
-      <c r="C272" s="17" t="s">
+      <c r="B275" s="23"/>
+      <c r="C275" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="23"/>
+      <c r="C276" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="23"/>
+      <c r="C277" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="22"/>
+      <c r="C278" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="4"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="22"/>
+      <c r="C281" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C283" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C285" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="23"/>
+      <c r="C286" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="22"/>
+      <c r="C287" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="4"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C289" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="3"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="23"/>
+      <c r="C292" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="22"/>
+      <c r="C293" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
-        <v>275</v>
-      </c>
-      <c r="B273" s="1"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="1" t="str">
-        <f t="shared" ref="D273:D302" si="4">IF(C273&lt;&gt;"",1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
-        <v>276</v>
-      </c>
-      <c r="B274" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C274" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
-        <v>277</v>
-      </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
-        <v>278</v>
-      </c>
-      <c r="B276" s="1"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="1" t="str">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
-        <v>279</v>
-      </c>
-      <c r="B277" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C277" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
-        <v>280</v>
-      </c>
-      <c r="B278" s="3"/>
-      <c r="C278" s="4"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
-        <v>281</v>
-      </c>
-      <c r="B279" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
-        <v>282</v>
-      </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="4"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>283</v>
-      </c>
-      <c r="B281" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C281" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>284</v>
-      </c>
-      <c r="B282" s="25"/>
-      <c r="C282" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>285</v>
-      </c>
-      <c r="B283" s="25"/>
-      <c r="C283" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>286</v>
-      </c>
-      <c r="B284" s="25"/>
-      <c r="C284" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>287</v>
-      </c>
-      <c r="B285" s="24"/>
-      <c r="C285" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>288</v>
-      </c>
-      <c r="B286" s="1"/>
-      <c r="C286" s="4"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>289</v>
-      </c>
-      <c r="B287" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C287" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>290</v>
-      </c>
-      <c r="B288" s="24"/>
-      <c r="C288" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
-        <v>291</v>
-      </c>
-      <c r="B289" s="1"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
-        <v>292</v>
-      </c>
-      <c r="B290" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
-        <v>293</v>
-      </c>
-      <c r="B291" s="3"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B292" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C292" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E292" s="33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>295</v>
-      </c>
-      <c r="B293" s="25"/>
-      <c r="C293" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>296</v>
-      </c>
-      <c r="B294" s="24"/>
-      <c r="C294" s="17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>297</v>
-      </c>
-      <c r="B295" s="1"/>
-      <c r="C295" s="4"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>298</v>
-      </c>
-      <c r="B296" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C296" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>299</v>
-      </c>
-      <c r="B297" s="3"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>300</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C298" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D298" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
-        <v>301</v>
-      </c>
-      <c r="B299" s="13"/>
-      <c r="C299" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D299" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>302</v>
-      </c>
-      <c r="B300" s="11"/>
-      <c r="C300" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D300" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
-        <v>303</v>
-      </c>
-      <c r="B301" s="1"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>304</v>
-      </c>
-      <c r="B302" s="7" t="s">
+      <c r="B295" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C302" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D302" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="C295" s="20" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H278" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
+  <autoFilter ref="A1:H271" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4836,361 +4662,361 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="13" t="s">
         <v>70</v>
       </c>
     </row>

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603AC54-974F-4228-B78E-A7B630D9E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB272D8E-1C43-496E-B446-428E9D489A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$270</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="312">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -702,9 +702,6 @@
     <t>  399:     response = await ApiHelper.post3(/api/CausanteRecibos/GetRecibos', request, widget.token);</t>
   </si>
   <si>
-    <t>  483:                     await ApiHelper.post3(/api/Account/ResetPassword', request, widget.token);</t>
-  </si>
-  <si>
     <t>  714:     Response response = await ApiHelper.put(/api/Causantes/', widget.causante.nroCausante.toString(), request);</t>
   </si>
   <si>
@@ -816,9 +813,6 @@
     <t>374: var url = Uri.parse('${Constants.apiUrl}/Api/Account/GetUserByLogin');</t>
   </si>
   <si>
-    <t>507:var url = Uri.parse('${Constants.apiUrl}/Api/Account/GetUserByEmail');</t>
-  </si>
-  <si>
     <t>lib\screens\inicio\home2_screen.dart:</t>
   </si>
   <si>
@@ -846,12 +840,6 @@
     <t>998:var url = Uri.parse('${Constants.apiUrl}/Api/UsuariosGeos/GetParametro');</t>
   </si>
   <si>
-    <t>311: Uri.parse('${Constants.apiUrl}/Api/Account/UpdateChangePasswordDate');</t>
-  </si>
-  <si>
-    <t>lib\screens\inicio\change_password.dart:</t>
-  </si>
-  <si>
     <t>839:var url = Uri.parse('${Constants.apiUrl}/Api/Account/GetUserByEmail');</t>
   </si>
   <si>
@@ -979,6 +967,15 @@
   </si>
   <si>
     <t>Tabla ObrasPostesCajasAPPtiene NO TIENE registros: NO LO USAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  310:    var url =Uri.parse('${Constants.apiUrl}/Api/Account/UpdateChangePasswordDate');</t>
+  </si>
+  <si>
+    <t>  487:     var url = Uri.parse('${Constants.apiUrl}/Api/Account/UpdateChangePasswordDate');</t>
+  </si>
+  <si>
+    <t>  483:     await ApiHelper.post3(/api/Account/ResetPassword', request, widget.token);</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1209,20 +1206,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,9 +1225,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,7 +1262,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,11 +1602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}">
-  <dimension ref="A1:X295"/>
+  <dimension ref="A1:X294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D223" sqref="D223:D227"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1648,13 +1631,13 @@
         <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1662,15 +1645,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D295)</f>
-        <v>12</v>
+        <f>SUM(D3:D294)</f>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1">
-        <f>COUNTBLANK(B1:B295)</f>
+        <f>COUNTBLANK(B1:B294)</f>
         <v>216</v>
       </c>
     </row>
@@ -1678,23 +1661,23 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="20">
         <f>+E2/F2</f>
-        <v>0.94444444444444442</v>
+        <v>0.9907407407407407</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1702,54 +1685,54 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>262</v>
+      <c r="B5" s="18"/>
+      <c r="C5" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="16" t="s">
-        <v>263</v>
+      <c r="B6" s="18"/>
+      <c r="C6" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>264</v>
+      <c r="B7" s="18"/>
+      <c r="C7" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="16" t="s">
-        <v>265</v>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>266</v>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="15" t="s">
-        <v>267</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1761,38 +1744,38 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>272</v>
+      <c r="B12" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="16" t="s">
-        <v>273</v>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="19" t="s">
-        <v>274</v>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="15" t="s">
-        <v>275</v>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1800,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D67" si="0">IF(C16&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="D16:D64" si="0">IF(C16&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -1808,366 +1791,360 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B17" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="16" t="s">
-        <v>279</v>
+      <c r="B18" s="25"/>
+      <c r="C18" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="16" t="s">
-        <v>280</v>
+      <c r="B19" s="23"/>
+      <c r="C19" s="11" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
-        <v>281</v>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B21" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B22" s="25"/>
+      <c r="C22" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="16" t="s">
-        <v>277</v>
+      <c r="B23" s="25"/>
+      <c r="C23" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="16" t="s">
-        <v>278</v>
+      <c r="B24" s="23"/>
+      <c r="C24" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
-        <v>276</v>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B27" s="18"/>
+      <c r="C27" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>135</v>
+      <c r="B29" s="18"/>
+      <c r="C29" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="16" t="s">
-        <v>136</v>
+      <c r="B30" s="17"/>
+      <c r="C30" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="16" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="16" t="s">
-        <v>138</v>
+      <c r="B32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="15" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
+      <c r="B34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>134</v>
+      <c r="B35" s="18"/>
+      <c r="C35" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>210</v>
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="16" t="s">
-        <v>234</v>
+      <c r="B38" s="18"/>
+      <c r="C38" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="16" t="s">
-        <v>211</v>
+      <c r="B39" s="18"/>
+      <c r="C39" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="16" t="s">
-        <v>253</v>
+      <c r="B40" s="18"/>
+      <c r="C40" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="16" t="s">
-        <v>254</v>
+      <c r="B41" s="18"/>
+      <c r="C41" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="16" t="s">
-        <v>132</v>
+      <c r="B42" s="18"/>
+      <c r="C42" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="16" t="s">
-        <v>212</v>
+      <c r="B43" s="17"/>
+      <c r="C43" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="16" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="16" t="s">
-        <v>213</v>
+      <c r="B45" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="15" t="s">
-        <v>214</v>
+      <c r="B46" s="18"/>
+      <c r="C46" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>252</v>
+      <c r="B48" s="17"/>
+      <c r="C48" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="16" t="s">
-        <v>130</v>
+      <c r="B50" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="15" t="s">
-        <v>131</v>
+      <c r="B51" s="17"/>
+      <c r="C51" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="4"/>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>282</v>
+      <c r="B53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="15" t="s">
-        <v>283</v>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2177,53 +2154,52 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>71</v>
+      <c r="B56" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E56" s="24" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15" t="s">
-        <v>255</v>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B58" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>287</v>
+      <c r="B59" s="23"/>
+      <c r="C59" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2236,78 +2212,75 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E60" s="29" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>73</v>
+      <c r="B61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="15" t="s">
-        <v>256</v>
+      <c r="B62" s="25"/>
+      <c r="C62" s="12" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>74</v>
+      <c r="B64" s="1"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="16" t="s">
-        <v>289</v>
+      <c r="B65" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="15" t="s">
-        <v>178</v>
+      <c r="B66" s="23"/>
+      <c r="C66" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&lt;&gt;"",1,"")</f>
         <v/>
       </c>
     </row>
@@ -2315,633 +2288,636 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>75</v>
+      <c r="B68" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="15" t="s">
-        <v>257</v>
+      <c r="B69" s="18"/>
+      <c r="C69" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="1" t="str">
-        <f t="shared" ref="D70:D133" si="1">IF(C70&lt;&gt;"",1,"")</f>
-        <v/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>76</v>
+      <c r="B71" s="17"/>
+      <c r="C71" s="11" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="16" t="s">
-        <v>179</v>
+      <c r="B72" s="1"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="16" t="s">
-        <v>77</v>
+      <c r="B73" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="15" t="s">
-        <v>290</v>
+      <c r="B74" s="18"/>
+      <c r="C74" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>78</v>
+      <c r="B76" s="18"/>
+      <c r="C76" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="16" t="s">
-        <v>180</v>
+      <c r="B77" s="18"/>
+      <c r="C77" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="16" t="s">
-        <v>79</v>
+      <c r="B78" s="18"/>
+      <c r="C78" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="16" t="s">
-        <v>80</v>
+      <c r="B79" s="17"/>
+      <c r="C79" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="17"/>
+      <c r="C82" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="4"/>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="18"/>
+      <c r="C85" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="17"/>
+      <c r="C86" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="18"/>
+      <c r="C89" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="18"/>
+      <c r="C90" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="18"/>
+      <c r="C91" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="18"/>
+      <c r="C95" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="18"/>
+      <c r="C96" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="17"/>
+      <c r="C97" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="18"/>
+      <c r="C100" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="18"/>
+      <c r="C101" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="18"/>
+      <c r="C102" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="17"/>
+      <c r="C103" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="25"/>
+      <c r="C108" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="18"/>
+      <c r="C109" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="18"/>
+      <c r="C110" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="18"/>
+      <c r="C111" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="16" t="s">
-        <v>194</v>
+      <c r="B112" s="18"/>
+      <c r="C112" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="16" t="s">
-        <v>91</v>
+      <c r="B113" s="18"/>
+      <c r="C113" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="16" t="s">
-        <v>292</v>
+      <c r="B114" s="18"/>
+      <c r="C114" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="16" t="s">
-        <v>92</v>
+      <c r="B115" s="17"/>
+      <c r="C115" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="16" t="s">
-        <v>93</v>
+      <c r="B116" s="1"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="16" t="s">
-        <v>94</v>
+      <c r="B117" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="22"/>
-      <c r="C118" s="15" t="s">
-        <v>95</v>
+      <c r="B118" s="18"/>
+      <c r="C118" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>195</v>
+      <c r="B120" s="18"/>
+      <c r="C120" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="16" t="s">
-        <v>230</v>
+      <c r="B121" s="17"/>
+      <c r="C121" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="16" t="s">
-        <v>96</v>
+      <c r="B122" s="1"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="16" t="s">
-        <v>97</v>
+      <c r="B123" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="15" t="s">
-        <v>98</v>
+      <c r="B124" s="18"/>
+      <c r="C124" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>196</v>
+      <c r="B126" s="1"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="16" t="s">
-        <v>246</v>
+      <c r="B127" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="22"/>
-      <c r="C128" s="15" t="s">
-        <v>247</v>
+      <c r="B128" s="18"/>
+      <c r="C128" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>248</v>
+      <c r="B130" s="1"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="16" t="s">
-        <v>249</v>
+      <c r="B131" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="22"/>
-      <c r="C132" s="15" t="s">
-        <v>197</v>
+      <c r="B132" s="17"/>
+      <c r="C132" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,111 +2926,108 @@
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E134" s="31" t="s">
-        <v>296</v>
+      <c r="B134" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="22"/>
-      <c r="C135" s="15" t="s">
-        <v>102</v>
+      <c r="B135" s="25"/>
+      <c r="C135" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="4"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>295</v>
+      <c r="B137" s="1"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="1" t="str">
+        <f t="shared" ref="D137:D200" si="2">IF(C137&lt;&gt;"",1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="16" t="s">
-        <v>294</v>
+      <c r="B138" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="15" t="s">
-        <v>100</v>
+      <c r="B139" s="18"/>
+      <c r="C139" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="1" t="str">
-        <f t="shared" ref="D140:D203" si="2">IF(C140&lt;&gt;"",1,"")</f>
-        <v/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>198</v>
+      <c r="B141" s="1"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="16" t="s">
-        <v>199</v>
+      <c r="B142" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="22"/>
-      <c r="C143" s="15" t="s">
-        <v>200</v>
+      <c r="B143" s="17"/>
+      <c r="C143" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,180 +3045,176 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>201</v>
+      <c r="B145" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="22"/>
-      <c r="C146" s="15" t="s">
-        <v>105</v>
+      <c r="B146" s="18"/>
+      <c r="C146" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="12" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>106</v>
+      <c r="B148" s="18"/>
+      <c r="C148" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="23"/>
-      <c r="C149" s="16" t="s">
-        <v>107</v>
+      <c r="B149" s="17"/>
+      <c r="C149" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="23"/>
-      <c r="C150" s="16" t="s">
-        <v>231</v>
+      <c r="B150" s="1"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="23"/>
-      <c r="C151" s="16" t="s">
-        <v>108</v>
+      <c r="B151" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="22"/>
-      <c r="C152" s="15" t="s">
-        <v>109</v>
+      <c r="B152" s="1"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B153" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>233</v>
+      <c r="B154" s="18"/>
+      <c r="C154" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>110</v>
+      <c r="B156" s="18"/>
+      <c r="C156" s="12" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="23"/>
-      <c r="C157" s="16" t="s">
-        <v>111</v>
+      <c r="B157" s="17"/>
+      <c r="C157" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="23"/>
-      <c r="C158" s="16" t="s">
-        <v>112</v>
+      <c r="B158" s="1"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="23"/>
-      <c r="C159" s="16" t="s">
-        <v>232</v>
+      <c r="B159" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="22"/>
-      <c r="C160" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B161" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>302</v>
+      <c r="B162" s="17"/>
+      <c r="C162" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3254,250 +3223,254 @@
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="4"/>
+      <c r="D163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>202</v>
+      <c r="B164" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="22"/>
-      <c r="C165" s="15" t="s">
-        <v>114</v>
+      <c r="B165" s="3"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B166" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>115</v>
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B168" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>116</v>
+      <c r="B169" s="3"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B170" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>117</v>
+      <c r="B171" s="17"/>
+      <c r="C171" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="3"/>
+      <c r="B172" s="1"/>
       <c r="C172" s="4"/>
-      <c r="D172" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>118</v>
+      <c r="B173" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="22"/>
-      <c r="C174" s="15" t="s">
-        <v>203</v>
+      <c r="B174" s="3"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="1"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B176" s="17"/>
+      <c r="C176" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B178" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="22"/>
-      <c r="C179" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B179" s="1"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="4"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B181" s="18"/>
+      <c r="C181" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B182" s="18"/>
+      <c r="C182" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="18"/>
+      <c r="C183" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="23"/>
-      <c r="C184" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="17"/>
+      <c r="C184" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="23"/>
-      <c r="C185" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="23"/>
-      <c r="C186" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="22"/>
-      <c r="C187" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B187" s="17"/>
+      <c r="C187" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -3508,53 +3481,56 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B189" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="22"/>
-      <c r="C190" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B190" s="3"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B191" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>124</v>
+      <c r="B192" s="17"/>
+      <c r="C192" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="3"/>
+      <c r="B193" s="1"/>
       <c r="C193" s="4"/>
       <c r="D193" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3565,63 +3541,60 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E194" s="31" t="s">
-        <v>297</v>
+      <c r="B194" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="22"/>
-      <c r="C195" s="15" t="s">
-        <v>125</v>
+      <c r="B195" s="18"/>
+      <c r="C195" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>126</v>
+      <c r="B197" s="1"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="23"/>
-      <c r="C198" s="16" t="s">
-        <v>127</v>
+      <c r="B198" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="22"/>
-      <c r="C199" s="15" t="s">
-        <v>208</v>
+      <c r="B199" s="17"/>
+      <c r="C199" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -3639,112 +3612,115 @@
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>128</v>
+      <c r="B201" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="22"/>
-      <c r="C202" s="15" t="s">
-        <v>209</v>
+      <c r="B202" s="18"/>
+      <c r="C202" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="1"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E204" s="31" t="s">
-        <v>303</v>
+      <c r="B204" s="17"/>
+      <c r="C204" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="23"/>
-      <c r="C205" s="16" t="s">
-        <v>141</v>
+      <c r="B205" s="1"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="1" t="str">
+        <f t="shared" ref="D205:D259" si="3">IF(C205&lt;&gt;"",1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="23"/>
-      <c r="C206" s="16" t="s">
-        <v>142</v>
+      <c r="B206" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="22"/>
-      <c r="C207" s="15" t="s">
-        <v>143</v>
+      <c r="B207" s="18"/>
+      <c r="C207" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="1" t="str">
-        <f t="shared" ref="D208:D260" si="3">IF(C208&lt;&gt;"",1,"")</f>
-        <v/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>144</v>
+      <c r="B209" s="1"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="23"/>
-      <c r="C210" s="16" t="s">
-        <v>215</v>
+      <c r="B210" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="22"/>
-      <c r="C211" s="15" t="s">
-        <v>145</v>
+      <c r="B211" s="17"/>
+      <c r="C211" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -3762,190 +3738,155 @@
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E213" s="31" t="s">
-        <v>304</v>
+      <c r="B213" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="22"/>
-      <c r="C214" s="15" t="s">
-        <v>146</v>
+      <c r="B214" s="18"/>
+      <c r="C214" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="1"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>147</v>
+      <c r="B216" s="18"/>
+      <c r="C216" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="23"/>
-      <c r="C217" s="16" t="s">
-        <v>148</v>
+      <c r="B217" s="18"/>
+      <c r="C217" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="23"/>
-      <c r="C218" s="16" t="s">
-        <v>149</v>
+      <c r="B218" s="17"/>
+      <c r="C218" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="23"/>
-      <c r="C219" s="16" t="s">
-        <v>150</v>
-      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="23"/>
-      <c r="C220" s="16" t="s">
-        <v>151</v>
+      <c r="B220" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="22"/>
-      <c r="C221" s="15" t="s">
-        <v>238</v>
+      <c r="B221" s="18"/>
+      <c r="C221" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="1"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D223" s="34">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B223" s="18"/>
+      <c r="C223" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="23"/>
-      <c r="C224" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D224" s="34">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B224" s="17"/>
+      <c r="C224" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="23"/>
-      <c r="C225" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D225" s="34">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="4"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="23"/>
-      <c r="C226" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D226" s="34">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B226" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="22"/>
-      <c r="C227" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D227" s="34">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" s="4"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="1"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B228" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>240</v>
+      <c r="B229" s="23"/>
+      <c r="C229" s="11" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -3963,42 +3904,38 @@
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>218</v>
+      <c r="B231" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>306</v>
-      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="22"/>
+      <c r="B234" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="C234" s="15" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -4012,423 +3949,415 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>241</v>
+      <c r="B236" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="3"/>
+      <c r="B237" s="1"/>
       <c r="C237" s="4"/>
+      <c r="D237" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>308</v>
+      <c r="B238" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="1"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>155</v>
+      <c r="B240" s="18"/>
+      <c r="C240" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="23"/>
-      <c r="C241" s="16" t="s">
-        <v>156</v>
+      <c r="B241" s="17"/>
+      <c r="C241" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="22"/>
-      <c r="C242" s="15" t="s">
-        <v>220</v>
+      <c r="B242" s="1"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="1"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B243" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>157</v>
+      <c r="B244" s="17"/>
+      <c r="C244" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="22"/>
-      <c r="C245" s="15" t="s">
-        <v>158</v>
-      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="1"/>
-      <c r="C246" s="4"/>
+      <c r="B246" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>159</v>
+      <c r="B247" s="17"/>
+      <c r="C247" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="22"/>
-      <c r="C248" s="15" t="s">
-        <v>242</v>
-      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="1"/>
-      <c r="C249" s="4"/>
+      <c r="B249" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E249" s="26" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C250" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E250" s="31" t="s">
-        <v>312</v>
+      <c r="B250" s="3"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="3"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B251" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D252" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="B252" s="17"/>
+      <c r="C252" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="11"/>
-      <c r="C253" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D253" s="1">
+      <c r="B253" s="1"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="1"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B254" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C254" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C255" s="20" t="s">
-        <v>221</v>
+      <c r="B255" s="3"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B256" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C257" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B257" s="3"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E258" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="G258" s="27"/>
+      <c r="H258" s="27"/>
+      <c r="I258" s="27"/>
+      <c r="J258" s="27"/>
+      <c r="K258" s="27"/>
+      <c r="L258" s="27"/>
+      <c r="M258" s="27"/>
+      <c r="N258" s="27"/>
+      <c r="O258" s="27"/>
+      <c r="P258" s="27"/>
+      <c r="Q258" s="27"/>
+      <c r="R258" s="27"/>
+      <c r="S258" s="27"/>
+      <c r="T258" s="27"/>
+      <c r="U258" s="27"/>
+      <c r="V258" s="27"/>
+      <c r="W258" s="27"/>
+      <c r="X258" s="27"/>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E259" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="G259" s="32"/>
-      <c r="H259" s="32"/>
-      <c r="I259" s="32"/>
-      <c r="J259" s="32"/>
-      <c r="K259" s="32"/>
-      <c r="L259" s="32"/>
-      <c r="M259" s="32"/>
-      <c r="N259" s="32"/>
-      <c r="O259" s="32"/>
-      <c r="P259" s="32"/>
-      <c r="Q259" s="32"/>
-      <c r="R259" s="32"/>
-      <c r="S259" s="32"/>
-      <c r="T259" s="32"/>
-      <c r="U259" s="32"/>
-      <c r="V259" s="32"/>
-      <c r="W259" s="32"/>
-      <c r="X259" s="32"/>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B259" s="3"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="3"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E260" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C261" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E261" s="31" t="s">
-        <v>303</v>
+      <c r="B261" s="18"/>
+      <c r="C261" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="23"/>
-      <c r="C262" s="16" t="s">
-        <v>165</v>
+      <c r="B262" s="18"/>
+      <c r="C262" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="23"/>
-      <c r="C263" s="16" t="s">
-        <v>166</v>
+      <c r="B263" s="18"/>
+      <c r="C263" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="23"/>
-      <c r="C264" s="16" t="s">
-        <v>167</v>
+      <c r="B264" s="17"/>
+      <c r="C264" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="22"/>
-      <c r="C265" s="15" t="s">
-        <v>168</v>
+      <c r="B265" s="1"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="1" t="str">
+        <f t="shared" ref="D265:D293" si="4">IF(C265&lt;&gt;"",1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="1"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="1" t="str">
-        <f t="shared" ref="D266:D294" si="4">IF(C266&lt;&gt;"",1,"")</f>
-        <v/>
+      <c r="B266" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C267" s="17" t="s">
-        <v>169</v>
+      <c r="B267" s="17"/>
+      <c r="C267" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="22"/>
-      <c r="C268" s="15" t="s">
-        <v>223</v>
+      <c r="B268" s="1"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="1"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B269" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>224</v>
-      </c>
+      <c r="B270" s="3"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="3"/>
-      <c r="C271" s="4"/>
+      <c r="B271" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>243</v>
-      </c>
+      <c r="B272" s="3"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="3"/>
-      <c r="C273" s="4"/>
+      <c r="B273" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C274" s="17" t="s">
+      <c r="B274" s="18"/>
+      <c r="C274" s="12" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4436,212 +4365,203 @@
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="16" t="s">
-        <v>226</v>
+      <c r="B275" s="18"/>
+      <c r="C275" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="23"/>
-      <c r="C276" s="16" t="s">
-        <v>244</v>
+      <c r="B276" s="18"/>
+      <c r="C276" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="23"/>
-      <c r="C277" s="16" t="s">
-        <v>227</v>
+      <c r="B277" s="17"/>
+      <c r="C277" s="11" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="22"/>
-      <c r="C278" s="15" t="s">
-        <v>237</v>
-      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="1"/>
-      <c r="C279" s="4"/>
+      <c r="B279" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C280" s="17" t="s">
-        <v>170</v>
+      <c r="B280" s="17"/>
+      <c r="C280" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="22"/>
-      <c r="C281" s="15" t="s">
-        <v>236</v>
+      <c r="B281" s="1"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="1"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B282" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C283" s="20" t="s">
-        <v>171</v>
+      <c r="B283" s="3"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="3"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B284" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E284" s="26" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C285" s="17" t="s">
+      <c r="B285" s="18"/>
+      <c r="C285" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="E285" s="31" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="23"/>
-      <c r="C286" s="16" t="s">
-        <v>229</v>
+      <c r="B286" s="17"/>
+      <c r="C286" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="22"/>
-      <c r="C287" s="15" t="s">
-        <v>270</v>
-      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="4"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="1"/>
-      <c r="C288" s="4"/>
+      <c r="B288" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C289" s="20" t="s">
-        <v>235</v>
+      <c r="B289" s="3"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="3"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B290" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C291" s="17" t="s">
-        <v>172</v>
+      <c r="B291" s="18"/>
+      <c r="C291" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="23"/>
-      <c r="C292" s="16" t="s">
-        <v>173</v>
+      <c r="B292" s="17"/>
+      <c r="C292" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="22"/>
-      <c r="C293" s="15" t="s">
-        <v>174</v>
+      <c r="B293" s="1"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="1"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>294</v>
-      </c>
-      <c r="B295" s="24" t="s">
+      <c r="B294" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C295" s="20" t="s">
-        <v>311</v>
+      <c r="C294" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H271" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
+  <autoFilter ref="A1:H270" xr:uid="{1909CFF1-0A6C-44A7-9C0C-A66AD39C6E08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4666,357 +4586,357 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="9" t="s">
         <v>70</v>
       </c>
     </row>

--- a/Excel/Archivos con ApiHelper.xlsx
+++ b/Excel/Archivos con ApiHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rowing_app\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB272D8E-1C43-496E-B446-428E9D489A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C2E6C-B02A-4E4D-A24C-41743DD2AA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94115EED-1A9C-41CF-A558-7478ADEA294A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="318">
   <si>
     <t>lib\blocs\location\location_bloc.dart:</t>
   </si>
@@ -96,9 +96,6 @@
     <t>lib\screens\flotas\turnos_agregar_screen.dart:</t>
   </si>
   <si>
-    <t>lib\screens\inicio\home_screen copy.dart:</t>
-  </si>
-  <si>
     <t>lib\screens\inicio\login_screen.dart:</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>lib\screens\obras\veredas_screen.dart:</t>
   </si>
   <si>
-    <t>lib\screens\presentismo\presentismo_screen nuevo.dart:</t>
-  </si>
-  <si>
     <t>lib\screens\presentismo\presentismo_screen.dart:</t>
   </si>
   <si>
@@ -976,6 +970,30 @@
   </si>
   <si>
     <t>  483:     await ApiHelper.post3(/api/Account/ResetPassword', request, widget.token);</t>
+  </si>
+  <si>
+    <t>Elementos en calle</t>
+  </si>
+  <si>
+    <t>Turnos Taller</t>
+  </si>
+  <si>
+    <t>Nuevos Suministros</t>
+  </si>
+  <si>
+    <t>Novedades RRHH</t>
+  </si>
+  <si>
+    <t>Reclamos</t>
+  </si>
+  <si>
+    <t>Veredas</t>
+  </si>
+  <si>
+    <t>Req. de EPP en Seguridad e Higiene</t>
+  </si>
+  <si>
+    <t>Req. de Materiales para una Obra</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1060,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,12 +1070,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1206,53 +1218,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1605,8 +1605,8 @@
   <dimension ref="A1:X294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1622,22 +1622,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1646,11 +1646,11 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D3:D294)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <f>+F2-D2</f>
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTBLANK(B1:B294)</f>
@@ -1661,78 +1661,78 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="16">
         <f>+E2/F2</f>
-        <v>0.9907407407407407</v>
+        <v>0.99537037037037035</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="12" t="s">
-        <v>104</v>
+      <c r="B4" s="14"/>
+      <c r="C4" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="12" t="s">
-        <v>260</v>
+      <c r="B5" s="14"/>
+      <c r="C5" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="12" t="s">
-        <v>261</v>
+      <c r="B6" s="14"/>
+      <c r="C6" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="12" t="s">
-        <v>262</v>
+      <c r="B7" s="14"/>
+      <c r="C7" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="12" t="s">
-        <v>263</v>
+      <c r="B8" s="14"/>
+      <c r="C8" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="12" t="s">
-        <v>264</v>
+      <c r="B9" s="14"/>
+      <c r="C9" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11" t="s">
-        <v>265</v>
+      <c r="B10" s="13"/>
+      <c r="C10" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1744,38 +1744,38 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>268</v>
+      <c r="B12" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="12" t="s">
-        <v>269</v>
+      <c r="B13" s="14"/>
+      <c r="C13" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14" t="s">
-        <v>270</v>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="11" t="s">
-        <v>271</v>
+      <c r="B15" s="13"/>
+      <c r="C15" s="7" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1791,29 +1791,29 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>275</v>
+      <c r="B17" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="12" t="s">
-        <v>276</v>
+      <c r="B18" s="21"/>
+      <c r="C18" s="8" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="11" t="s">
-        <v>277</v>
+      <c r="B19" s="19"/>
+      <c r="C19" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,38 +1831,38 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>273</v>
+      <c r="B21" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="12" t="s">
-        <v>272</v>
+      <c r="B22" s="21"/>
+      <c r="C22" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="12" t="s">
-        <v>274</v>
+      <c r="B23" s="21"/>
+      <c r="C23" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="11" t="s">
-        <v>259</v>
+      <c r="B24" s="19"/>
+      <c r="C24" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1880,47 +1880,47 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>135</v>
+      <c r="B26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="12" t="s">
-        <v>136</v>
+      <c r="B27" s="14"/>
+      <c r="C27" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="12" t="s">
-        <v>137</v>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="12" t="s">
-        <v>138</v>
+      <c r="B29" s="14"/>
+      <c r="C29" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="11" t="s">
-        <v>139</v>
+      <c r="B30" s="13"/>
+      <c r="C30" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1932,11 +1932,11 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>134</v>
+      <c r="B32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,92 +1948,92 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>210</v>
+      <c r="B34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="12" t="s">
-        <v>233</v>
+      <c r="B35" s="14"/>
+      <c r="C35" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="12" t="s">
-        <v>211</v>
+      <c r="B36" s="14"/>
+      <c r="C36" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="12" t="s">
-        <v>252</v>
+      <c r="B37" s="14"/>
+      <c r="C37" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="12" t="s">
-        <v>253</v>
+      <c r="B38" s="14"/>
+      <c r="C38" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="12" t="s">
-        <v>132</v>
+      <c r="B39" s="14"/>
+      <c r="C39" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="12" t="s">
-        <v>212</v>
+      <c r="B40" s="14"/>
+      <c r="C40" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="12" t="s">
-        <v>133</v>
+      <c r="B41" s="14"/>
+      <c r="C41" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="12" t="s">
-        <v>213</v>
+      <c r="B42" s="14"/>
+      <c r="C42" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="11" t="s">
-        <v>214</v>
+      <c r="B43" s="13"/>
+      <c r="C43" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2045,38 +2045,38 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>251</v>
+      <c r="B45" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="12" t="s">
-        <v>129</v>
+      <c r="B46" s="14"/>
+      <c r="C46" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="12" t="s">
-        <v>130</v>
+      <c r="B47" s="14"/>
+      <c r="C47" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="11" t="s">
-        <v>131</v>
+      <c r="B48" s="13"/>
+      <c r="C48" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2090,20 +2090,20 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>278</v>
+      <c r="B50" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="11" t="s">
-        <v>279</v>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2119,24 +2119,20 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C53" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11" t="s">
-        <v>254</v>
+      <c r="B54" s="19"/>
+      <c r="C54" s="7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2154,18 +2150,18 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>72</v>
+      <c r="C56" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E56" s="24" t="s">
-        <v>283</v>
+      <c r="E56" s="20" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2178,28 +2174,28 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>284</v>
+      <c r="E57" s="20" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>73</v>
+      <c r="C58" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="11" t="s">
-        <v>255</v>
+      <c r="B59" s="19"/>
+      <c r="C59" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2217,29 +2213,29 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>74</v>
+      <c r="C61" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="12" t="s">
-        <v>285</v>
+      <c r="B62" s="21"/>
+      <c r="C62" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="11" t="s">
-        <v>178</v>
+      <c r="B63" s="13"/>
+      <c r="C63" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2257,20 +2253,20 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>75</v>
+      <c r="C65" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="11" t="s">
-        <v>256</v>
+      <c r="B66" s="19"/>
+      <c r="C66" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2288,38 +2284,38 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>76</v>
+      <c r="C68" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="12" t="s">
-        <v>179</v>
+      <c r="B69" s="14"/>
+      <c r="C69" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="12" t="s">
-        <v>77</v>
+      <c r="B70" s="14"/>
+      <c r="C70" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="11" t="s">
-        <v>286</v>
+      <c r="B71" s="13"/>
+      <c r="C71" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2337,65 +2333,65 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>78</v>
+      <c r="C73" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="12" t="s">
-        <v>180</v>
+      <c r="B74" s="14"/>
+      <c r="C74" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="12" t="s">
-        <v>79</v>
+      <c r="B75" s="14"/>
+      <c r="C75" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="12" t="s">
-        <v>80</v>
+      <c r="B76" s="14"/>
+      <c r="C76" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="12" t="s">
-        <v>81</v>
+      <c r="B77" s="14"/>
+      <c r="C77" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="12" t="s">
-        <v>181</v>
+      <c r="B78" s="14"/>
+      <c r="C78" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="11" t="s">
-        <v>82</v>
+      <c r="B79" s="13"/>
+      <c r="C79" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2408,20 +2404,20 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>83</v>
+      <c r="C81" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="11" t="s">
-        <v>182</v>
+      <c r="B82" s="13"/>
+      <c r="C82" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2439,29 +2435,29 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>84</v>
+      <c r="C84" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="12" t="s">
-        <v>183</v>
+      <c r="B85" s="14"/>
+      <c r="C85" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="11" t="s">
-        <v>184</v>
+      <c r="B86" s="13"/>
+      <c r="C86" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2479,47 +2475,47 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>85</v>
+      <c r="C88" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="12" t="s">
-        <v>185</v>
+      <c r="B89" s="14"/>
+      <c r="C89" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="12" t="s">
-        <v>186</v>
+      <c r="B90" s="14"/>
+      <c r="C90" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="12" t="s">
-        <v>187</v>
+      <c r="B91" s="14"/>
+      <c r="C91" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="11" t="s">
-        <v>188</v>
+      <c r="B92" s="13"/>
+      <c r="C92" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,41 +2533,41 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>296</v>
+      <c r="C94" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="12" t="s">
-        <v>189</v>
+      <c r="B95" s="14"/>
+      <c r="C95" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="12" t="s">
-        <v>190</v>
+      <c r="B96" s="14"/>
+      <c r="C96" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="11" t="s">
-        <v>87</v>
+      <c r="B97" s="13"/>
+      <c r="C97" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2589,47 +2585,47 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>88</v>
+      <c r="C99" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="12" t="s">
-        <v>191</v>
+      <c r="B100" s="14"/>
+      <c r="C100" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="12" t="s">
-        <v>192</v>
+      <c r="B101" s="14"/>
+      <c r="C101" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="12" t="s">
-        <v>193</v>
+      <c r="B102" s="14"/>
+      <c r="C102" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="11" t="s">
-        <v>244</v>
+      <c r="B103" s="13"/>
+      <c r="C103" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2647,11 +2643,11 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>89</v>
+      <c r="C105" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2669,83 +2665,83 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>90</v>
+      <c r="C107" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="12" t="s">
-        <v>287</v>
+      <c r="B108" s="21"/>
+      <c r="C108" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="12" t="s">
-        <v>194</v>
+      <c r="B109" s="14"/>
+      <c r="C109" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="12" t="s">
-        <v>91</v>
+      <c r="B110" s="14"/>
+      <c r="C110" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="12" t="s">
-        <v>288</v>
+      <c r="B111" s="14"/>
+      <c r="C111" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="12" t="s">
-        <v>92</v>
+      <c r="B112" s="14"/>
+      <c r="C112" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="12" t="s">
-        <v>93</v>
+      <c r="B113" s="14"/>
+      <c r="C113" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="12" t="s">
-        <v>94</v>
+      <c r="B114" s="14"/>
+      <c r="C114" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="11" t="s">
-        <v>95</v>
+      <c r="B115" s="13"/>
+      <c r="C115" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2763,47 +2759,47 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>195</v>
+      <c r="C117" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="12" t="s">
-        <v>229</v>
+      <c r="B118" s="14"/>
+      <c r="C118" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="12" t="s">
-        <v>96</v>
+      <c r="B119" s="14"/>
+      <c r="C119" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="12" t="s">
-        <v>97</v>
+      <c r="B120" s="14"/>
+      <c r="C120" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="11" t="s">
-        <v>98</v>
+      <c r="B121" s="13"/>
+      <c r="C121" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,29 +2817,29 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>196</v>
+      <c r="C123" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="12" t="s">
-        <v>245</v>
+      <c r="B124" s="14"/>
+      <c r="C124" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="17"/>
-      <c r="C125" s="11" t="s">
-        <v>246</v>
+      <c r="B125" s="13"/>
+      <c r="C125" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2861,29 +2857,29 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="13" t="s">
-        <v>247</v>
+      <c r="C127" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="12" t="s">
-        <v>248</v>
+      <c r="B128" s="14"/>
+      <c r="C128" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="11" t="s">
-        <v>197</v>
+      <c r="B129" s="13"/>
+      <c r="C129" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,23 +2897,23 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>292</v>
+      <c r="B131" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="17"/>
-      <c r="C132" s="11" t="s">
-        <v>102</v>
+      <c r="B132" s="13"/>
+      <c r="C132" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2931,32 +2927,32 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>291</v>
+      <c r="C134" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E134" s="20" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="25"/>
-      <c r="C135" s="12" t="s">
-        <v>290</v>
+      <c r="B135" s="21"/>
+      <c r="C135" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="17"/>
-      <c r="C136" s="11" t="s">
-        <v>100</v>
+      <c r="B136" s="13"/>
+      <c r="C136" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2974,29 +2970,29 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>198</v>
+      <c r="B138" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="12" t="s">
-        <v>199</v>
+      <c r="B139" s="14"/>
+      <c r="C139" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="17"/>
-      <c r="C140" s="11" t="s">
-        <v>200</v>
+      <c r="B140" s="13"/>
+      <c r="C140" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3014,20 +3010,20 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>201</v>
+      <c r="B142" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="11" t="s">
-        <v>105</v>
+      <c r="B143" s="13"/>
+      <c r="C143" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3045,47 +3041,47 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>106</v>
+      <c r="B145" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="12" t="s">
-        <v>107</v>
+      <c r="B146" s="14"/>
+      <c r="C146" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="12" t="s">
-        <v>230</v>
+      <c r="B147" s="14"/>
+      <c r="C147" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="12" t="s">
-        <v>108</v>
+      <c r="B148" s="14"/>
+      <c r="C148" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="17"/>
-      <c r="C149" s="11" t="s">
-        <v>109</v>
+      <c r="B149" s="13"/>
+      <c r="C149" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -3103,11 +3099,11 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>232</v>
+      <c r="B151" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -3125,47 +3121,47 @@
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>110</v>
+      <c r="B153" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="18"/>
-      <c r="C154" s="12" t="s">
-        <v>111</v>
+      <c r="B154" s="14"/>
+      <c r="C154" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="12" t="s">
-        <v>112</v>
+      <c r="B155" s="14"/>
+      <c r="C155" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="12" t="s">
-        <v>231</v>
+      <c r="B156" s="14"/>
+      <c r="C156" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="17"/>
-      <c r="C157" s="11" t="s">
-        <v>113</v>
+      <c r="B157" s="13"/>
+      <c r="C157" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,11 +3179,11 @@
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>298</v>
+      <c r="B159" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,20 +3197,20 @@
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>202</v>
+      <c r="B161" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="17"/>
-      <c r="C162" s="11" t="s">
-        <v>114</v>
+      <c r="B162" s="13"/>
+      <c r="C162" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3232,11 +3228,11 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>115</v>
+      <c r="B164" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3254,11 +3250,11 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>116</v>
+      <c r="B166" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3276,11 +3272,11 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>117</v>
+      <c r="B168" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3298,20 +3294,20 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>118</v>
+      <c r="B170" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="17"/>
-      <c r="C171" s="11" t="s">
-        <v>203</v>
+      <c r="B171" s="13"/>
+      <c r="C171" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,11 +3321,11 @@
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>119</v>
+      <c r="B173" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3347,20 +3343,20 @@
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>120</v>
+      <c r="B175" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="17"/>
-      <c r="C176" s="11" t="s">
-        <v>204</v>
+      <c r="B176" s="13"/>
+      <c r="C176" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,11 +3370,11 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>295</v>
+      <c r="B178" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -3396,47 +3392,47 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>205</v>
+      <c r="B180" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="18"/>
-      <c r="C181" s="12" t="s">
-        <v>249</v>
+      <c r="B181" s="14"/>
+      <c r="C181" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="18"/>
-      <c r="C182" s="12" t="s">
-        <v>121</v>
+      <c r="B182" s="14"/>
+      <c r="C182" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="18"/>
-      <c r="C183" s="12" t="s">
-        <v>250</v>
+      <c r="B183" s="14"/>
+      <c r="C183" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="17"/>
-      <c r="C184" s="11" t="s">
-        <v>206</v>
+      <c r="B184" s="13"/>
+      <c r="C184" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3454,20 +3450,20 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>122</v>
+      <c r="B186" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="17"/>
-      <c r="C187" s="11" t="s">
-        <v>123</v>
+      <c r="B187" s="13"/>
+      <c r="C187" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3485,11 +3481,11 @@
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>124</v>
+      <c r="B189" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3507,23 +3503,23 @@
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E191" s="26" t="s">
-        <v>293</v>
+      <c r="B191" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="17"/>
-      <c r="C192" s="11" t="s">
-        <v>125</v>
+      <c r="B192" s="13"/>
+      <c r="C192" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -3541,29 +3537,29 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>126</v>
+      <c r="B194" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="18"/>
-      <c r="C195" s="12" t="s">
-        <v>127</v>
+      <c r="B195" s="14"/>
+      <c r="C195" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="17"/>
-      <c r="C196" s="11" t="s">
-        <v>208</v>
+      <c r="B196" s="13"/>
+      <c r="C196" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3581,20 +3577,20 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>128</v>
+      <c r="B198" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="17"/>
-      <c r="C199" s="11" t="s">
-        <v>209</v>
+      <c r="B199" s="13"/>
+      <c r="C199" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -3612,41 +3608,41 @@
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E201" s="26" t="s">
-        <v>299</v>
+      <c r="B201" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="18"/>
-      <c r="C202" s="12" t="s">
-        <v>141</v>
+      <c r="B202" s="14"/>
+      <c r="C202" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="18"/>
-      <c r="C203" s="12" t="s">
-        <v>142</v>
+      <c r="B203" s="14"/>
+      <c r="C203" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="17"/>
-      <c r="C204" s="11" t="s">
-        <v>143</v>
+      <c r="B204" s="13"/>
+      <c r="C204" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,29 +3660,29 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>144</v>
+      <c r="B206" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="18"/>
-      <c r="C207" s="12" t="s">
-        <v>215</v>
+      <c r="B207" s="14"/>
+      <c r="C207" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="17"/>
-      <c r="C208" s="11" t="s">
-        <v>145</v>
+      <c r="B208" s="13"/>
+      <c r="C208" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -3704,23 +3700,23 @@
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>300</v>
+      <c r="B210" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="17"/>
-      <c r="C211" s="11" t="s">
-        <v>146</v>
+      <c r="B211" s="13"/>
+      <c r="C211" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -3738,56 +3734,56 @@
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>147</v>
+      <c r="B213" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="18"/>
-      <c r="C214" s="12" t="s">
-        <v>148</v>
+      <c r="B214" s="14"/>
+      <c r="C214" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="18"/>
-      <c r="C215" s="12" t="s">
-        <v>149</v>
+      <c r="B215" s="14"/>
+      <c r="C215" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="18"/>
-      <c r="C216" s="12" t="s">
-        <v>150</v>
+      <c r="B216" s="14"/>
+      <c r="C216" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="18"/>
-      <c r="C217" s="12" t="s">
-        <v>151</v>
+      <c r="B217" s="14"/>
+      <c r="C217" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="17"/>
-      <c r="C218" s="11" t="s">
-        <v>237</v>
+      <c r="B218" s="13"/>
+      <c r="C218" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -3801,47 +3797,47 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>238</v>
+      <c r="B220" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="18"/>
-      <c r="C221" s="12" t="s">
-        <v>152</v>
+      <c r="B221" s="14"/>
+      <c r="C221" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="18"/>
-      <c r="C222" s="12" t="s">
-        <v>153</v>
+      <c r="B222" s="14"/>
+      <c r="C222" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="18"/>
-      <c r="C223" s="12" t="s">
-        <v>154</v>
+      <c r="B223" s="14"/>
+      <c r="C223" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="17"/>
-      <c r="C224" s="11" t="s">
-        <v>217</v>
+      <c r="B224" s="13"/>
+      <c r="C224" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,11 +3851,11 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C226" s="15" t="s">
-        <v>239</v>
+      <c r="B226" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3873,20 +3869,20 @@
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>218</v>
+      <c r="B228" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="23"/>
-      <c r="C229" s="11" t="s">
-        <v>309</v>
+      <c r="B229" s="19"/>
+      <c r="C229" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -3904,20 +3900,20 @@
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>302</v>
+      <c r="B231" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="17"/>
-      <c r="C232" s="11" t="s">
-        <v>219</v>
+      <c r="B232" s="13"/>
+      <c r="C232" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,11 +3927,11 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C234" s="15" t="s">
-        <v>240</v>
+      <c r="B234" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -3949,11 +3945,11 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C236" s="15" t="s">
-        <v>304</v>
+      <c r="B236" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,38 +3967,38 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>155</v>
+      <c r="B238" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="18"/>
-      <c r="C239" s="12" t="s">
-        <v>156</v>
+      <c r="B239" s="14"/>
+      <c r="C239" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="18"/>
-      <c r="C240" s="12" t="s">
-        <v>311</v>
+      <c r="B240" s="14"/>
+      <c r="C240" s="8" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="17"/>
-      <c r="C241" s="11" t="s">
-        <v>310</v>
+      <c r="B241" s="13"/>
+      <c r="C241" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -4020,20 +4016,20 @@
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>157</v>
+      <c r="B243" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="17"/>
-      <c r="C244" s="11" t="s">
-        <v>158</v>
+      <c r="B244" s="13"/>
+      <c r="C244" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4047,20 +4043,20 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>159</v>
+      <c r="B246" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="17"/>
-      <c r="C247" s="11" t="s">
-        <v>241</v>
+      <c r="B247" s="13"/>
+      <c r="C247" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -4074,14 +4070,14 @@
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E249" s="26" t="s">
-        <v>308</v>
+      <c r="B249" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E249" s="22" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -4099,20 +4095,20 @@
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>161</v>
+      <c r="B251" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="17"/>
-      <c r="C252" s="11" t="s">
-        <v>162</v>
+      <c r="B252" s="13"/>
+      <c r="C252" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -4130,11 +4126,11 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>220</v>
+      <c r="B254" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -4152,11 +4148,11 @@
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>221</v>
+      <c r="B256" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
@@ -4174,33 +4170,33 @@
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C258" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E258" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="G258" s="27"/>
-      <c r="H258" s="27"/>
-      <c r="I258" s="27"/>
-      <c r="J258" s="27"/>
-      <c r="K258" s="27"/>
-      <c r="L258" s="27"/>
-      <c r="M258" s="27"/>
-      <c r="N258" s="27"/>
-      <c r="O258" s="27"/>
-      <c r="P258" s="27"/>
-      <c r="Q258" s="27"/>
-      <c r="R258" s="27"/>
-      <c r="S258" s="27"/>
-      <c r="T258" s="27"/>
-      <c r="U258" s="27"/>
-      <c r="V258" s="27"/>
-      <c r="W258" s="27"/>
-      <c r="X258" s="27"/>
+      <c r="B258" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E258" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G258" s="23"/>
+      <c r="H258" s="23"/>
+      <c r="I258" s="23"/>
+      <c r="J258" s="23"/>
+      <c r="K258" s="23"/>
+      <c r="L258" s="23"/>
+      <c r="M258" s="23"/>
+      <c r="N258" s="23"/>
+      <c r="O258" s="23"/>
+      <c r="P258" s="23"/>
+      <c r="Q258" s="23"/>
+      <c r="R258" s="23"/>
+      <c r="S258" s="23"/>
+      <c r="T258" s="23"/>
+      <c r="U258" s="23"/>
+      <c r="V258" s="23"/>
+      <c r="W258" s="23"/>
+      <c r="X258" s="23"/>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
@@ -4217,50 +4213,50 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E260" s="26" t="s">
-        <v>299</v>
+      <c r="B260" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E260" s="22" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="18"/>
-      <c r="C261" s="12" t="s">
-        <v>165</v>
+      <c r="B261" s="14"/>
+      <c r="C261" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="12" t="s">
-        <v>166</v>
+      <c r="B262" s="14"/>
+      <c r="C262" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="18"/>
-      <c r="C263" s="12" t="s">
-        <v>167</v>
+      <c r="B263" s="14"/>
+      <c r="C263" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="17"/>
-      <c r="C264" s="11" t="s">
-        <v>168</v>
+      <c r="B264" s="13"/>
+      <c r="C264" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
@@ -4278,20 +4274,20 @@
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>169</v>
+      <c r="B266" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="17"/>
-      <c r="C267" s="11" t="s">
-        <v>222</v>
+      <c r="B267" s="13"/>
+      <c r="C267" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
@@ -4309,11 +4305,11 @@
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>223</v>
+      <c r="B269" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
@@ -4327,11 +4323,11 @@
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>242</v>
+      <c r="B271" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
@@ -4345,47 +4341,47 @@
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>224</v>
+      <c r="B273" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="18"/>
-      <c r="C274" s="12" t="s">
-        <v>225</v>
+      <c r="B274" s="14"/>
+      <c r="C274" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="18"/>
-      <c r="C275" s="12" t="s">
-        <v>243</v>
+      <c r="B275" s="14"/>
+      <c r="C275" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="18"/>
-      <c r="C276" s="12" t="s">
-        <v>226</v>
+      <c r="B276" s="14"/>
+      <c r="C276" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="17"/>
-      <c r="C277" s="11" t="s">
-        <v>236</v>
+      <c r="B277" s="13"/>
+      <c r="C277" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -4399,20 +4395,20 @@
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C279" s="13" t="s">
-        <v>170</v>
+      <c r="B279" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="17"/>
-      <c r="C280" s="11" t="s">
-        <v>235</v>
+      <c r="B280" s="13"/>
+      <c r="C280" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -4430,11 +4426,11 @@
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>171</v>
+      <c r="B282" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -4452,32 +4448,32 @@
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E284" s="26" t="s">
-        <v>306</v>
+      <c r="B284" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E284" s="22" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="18"/>
-      <c r="C285" s="12" t="s">
-        <v>228</v>
+      <c r="B285" s="14"/>
+      <c r="C285" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="17"/>
-      <c r="C286" s="11" t="s">
-        <v>266</v>
+      <c r="B286" s="13"/>
+      <c r="C286" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -4491,11 +4487,11 @@
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>234</v>
+      <c r="B288" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4513,29 +4509,29 @@
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C290" s="13" t="s">
-        <v>172</v>
+      <c r="B290" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="18"/>
-      <c r="C291" s="12" t="s">
-        <v>173</v>
+      <c r="B291" s="14"/>
+      <c r="C291" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="17"/>
-      <c r="C292" s="11" t="s">
-        <v>174</v>
+      <c r="B292" s="13"/>
+      <c r="C292" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -4553,11 +4549,11 @@
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>307</v>
+      <c r="B294" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4569,381 +4565,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322231A-3280-48FF-912F-3416124A4DDC}">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>176</v>
+      <c r="A1" s="22" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
+      <c r="A2" s="22" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
+      <c r="A3" s="22" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
+      <c r="A4" s="22" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
+      <c r="A5" s="22" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
+      <c r="A6" s="22" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
+      <c r="A7" s="22" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
+      <c r="A8" s="22" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A72">
-    <sortCondition ref="A1:A72"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>